--- a/Chapter 4.xlsx
+++ b/Chapter 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10380"/>
+    <workbookView windowWidth="14400" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="95">
   <si>
     <t>Chapter 4</t>
   </si>
   <si>
+    <t>4-1A</t>
+  </si>
+  <si>
     <t>4-2A</t>
   </si>
   <si>
@@ -96,6 +99,219 @@
   </si>
   <si>
     <t>Unadjusted trial balance</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Statement Owner's Equity</t>
+  </si>
+  <si>
+    <t>Balance sheet</t>
+  </si>
+  <si>
+    <t>Adjusted trial balance</t>
+  </si>
+  <si>
+    <t>Postt-Closing trial balance</t>
+  </si>
+  <si>
+    <t>Assets:</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Owner's Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Liabilities &amp; Equity:</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Close Revenue</t>
+  </si>
+  <si>
+    <t>Close Expense</t>
+  </si>
+  <si>
+    <t>Close Income Summary</t>
+  </si>
+  <si>
+    <t>Close Withdrawals</t>
+  </si>
+  <si>
+    <t>4-3A</t>
+  </si>
+  <si>
+    <t>Repairs fees earned</t>
+  </si>
+  <si>
+    <t>S. Kobe, Capital</t>
+  </si>
+  <si>
+    <t>Depreciation Expense —  Equipment</t>
+  </si>
+  <si>
+    <t>S. Kobe, Withdrawals</t>
+  </si>
+  <si>
+    <t>Wages Expense</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation — Equipment</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Utilities Expense</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Closing entries</t>
+  </si>
+  <si>
+    <t>Post-closing trial balance</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>Prepaid insurance</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation—Equipment</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Wages payable</t>
+  </si>
+  <si>
+    <t>Repair fees earned</t>
+  </si>
+  <si>
+    <t>Depreciation expense—Equipment</t>
+  </si>
+  <si>
+    <t>Wages expense</t>
+  </si>
+  <si>
+    <t>Insurance expense</t>
+  </si>
+  <si>
+    <t>Rent expense</t>
+  </si>
+  <si>
+    <t>Office supplies expense</t>
+  </si>
+  <si>
+    <t>Utilities expense</t>
+  </si>
+  <si>
+    <t>4-4A</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>Professional fees earned</t>
+  </si>
+  <si>
+    <t>J. Sharp, Capital</t>
+  </si>
+  <si>
+    <t>Rent earned</t>
+  </si>
+  <si>
+    <t>Debt ratio</t>
+  </si>
+  <si>
+    <t>Dividends earned</t>
+  </si>
+  <si>
+    <t>J. Sharp, Withdrawals</t>
+  </si>
+  <si>
+    <t>Short-term investments</t>
+  </si>
+  <si>
+    <t>Interest earned</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Depreciation expense—Building</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation—Building</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Supplies expense</t>
+  </si>
+  <si>
+    <t>Postage expense</t>
+  </si>
+  <si>
+    <t>Property taxes expense</t>
+  </si>
+  <si>
+    <t>Repairs expense</t>
+  </si>
+  <si>
+    <t>Interest payable</t>
+  </si>
+  <si>
+    <t>Telephone expense</t>
+  </si>
+  <si>
+    <t>Rent payable</t>
+  </si>
+  <si>
+    <t>Property taxes payable</t>
+  </si>
+  <si>
+    <t>Unearned professional fees</t>
+  </si>
+  <si>
+    <t>Long-term notes payable</t>
   </si>
 </sst>
 </file>
@@ -108,7 +324,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +337,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -467,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -556,6 +786,68 @@
     <border>
       <left/>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -682,165 +974,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -876,32 +1180,182 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,6 +1632,53 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="828675"/>
+          <a:ext cx="6194425" cy="2388870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1436,1237 +1937,3410 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:AI163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="J129" workbookViewId="0">
+      <selection activeCell="O145" sqref="O145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <cols>
+    <col min="16" max="16" width="12.8571428571429"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" ht="31.5" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" ht="18.75" spans="1:1">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:25">
-      <c r="A4" s="2" t="s">
+    <row r="13" ht="18.75" spans="1:1">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" ht="18.75" spans="1:1">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" ht="18.75" spans="1:1">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:25">
+      <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="M17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="S4" s="3" t="s">
+      <c r="P17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="Q17" s="6"/>
+      <c r="S17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="V17" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="Y17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
         <v>12</v>
       </c>
-      <c r="M5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
         <v>12</v>
       </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="N18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" t="s">
         <v>12</v>
       </c>
-      <c r="S5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="Q18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" t="s">
         <v>12</v>
       </c>
-      <c r="V5" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="W18" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
+      <c r="Z18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19">
         <v>20000</v>
       </c>
-      <c r="G6">
+      <c r="D19">
+        <v>1650</v>
+      </c>
+      <c r="G19">
         <v>1100</v>
       </c>
-      <c r="J6">
+      <c r="J19">
         <v>3600</v>
       </c>
-      <c r="M6">
+      <c r="M19">
         <v>40000</v>
       </c>
-      <c r="W6">
+      <c r="Q19">
+        <v>600</v>
+      </c>
+      <c r="T19">
+        <v>320</v>
+      </c>
+      <c r="W19">
         <v>60000</v>
       </c>
-      <c r="Y6">
+      <c r="Y19">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7">
+    <row r="20" spans="2:26">
+      <c r="B20">
         <v>1700</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8">
+      <c r="H20">
+        <v>400</v>
+      </c>
+      <c r="K20">
+        <v>200</v>
+      </c>
+      <c r="W20">
+        <v>1830</v>
+      </c>
+      <c r="Z20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21">
         <v>1100</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9">
+      <c r="V21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10">
+    <row r="23" spans="2:2">
+      <c r="B23">
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="24" spans="1:1">
+      <c r="A24">
         <v>7900</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12">
+    <row r="25" spans="2:2">
+      <c r="B25">
         <v>1800</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1">
+    <row r="26" spans="1:26">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1">
         <v>250</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1">
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1">
         <v>650</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8">
         <v>1500</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="8">
-        <f>SUM(A6:A15)</f>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="8"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="10">
+        <f>SUM(A19:A28)</f>
         <v>27900</v>
       </c>
-      <c r="B16" s="8">
-        <f t="shared" ref="B16:Z16" si="0">SUM(B6:B15)</f>
+      <c r="B29" s="10">
+        <f t="shared" ref="B29:Z29" si="0">SUM(B19:B28)</f>
         <v>12400</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G29" s="10">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="I29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="J29" s="10">
         <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="H16" s="8">
+        <v>3600</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="L29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="8">
+      <c r="M29" s="10">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="K16" s="8">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="8">
+      <c r="P29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="8">
+      <c r="Q29" s="10">
         <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="N16" s="8">
+        <v>600</v>
+      </c>
+      <c r="R29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="8">
+      <c r="S29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="8">
+      <c r="T29" s="10">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="U29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="V29" s="10">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="W29" s="10">
+        <f t="shared" si="0"/>
+        <v>61830</v>
+      </c>
+      <c r="X29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <f t="shared" si="0"/>
-        <v>60000</v>
-      </c>
-      <c r="X16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8">
+      <c r="Y29" s="10">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="Z16" s="8">
+      <c r="Z29" s="10">
         <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1">
+        <f>A29-B29</f>
+        <v>15500</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10">
+        <f>SUM(D20:D29)</f>
+        <v>1650</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="10">
+        <v>700</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="10">
+        <v>3400</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="10">
+        <f>SUM(M20:M29)</f>
+        <v>40000</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="10">
+        <f>SUM(Q20:Q29)</f>
+        <v>600</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="10">
+        <f>SUM(T20:T29)</f>
+        <v>320</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="10">
+        <f>W29-V29</f>
+        <v>60330</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1">
-        <f>A16-B16</f>
-        <v>15500</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="8">
-        <f>SUM(G7:G16)</f>
-        <v>1100</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="8">
-        <f>SUM(J7:J16)</f>
-        <v>3600</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="8">
-        <f>SUM(M7:M16)</f>
-        <v>40000</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="8">
-        <f>SUM(W7:W16)</f>
-        <v>60000</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="8">
-        <f>SUM(Y7:Y16)</f>
-        <v>1500</v>
-      </c>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="3" t="s">
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
         <v>12</v>
       </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
         <v>12</v>
       </c>
-      <c r="M21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="N34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" t="s">
         <v>12</v>
       </c>
-      <c r="P21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="Q34" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" t="s">
         <v>12</v>
       </c>
-      <c r="S21" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" t="s">
         <v>12</v>
       </c>
-      <c r="V21" t="s">
-        <v>11</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="W34" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y34" t="s">
         <v>12</v>
       </c>
-      <c r="Y21" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22">
-      <c r="B22">
+      <c r="Z34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35">
         <v>7900</v>
       </c>
-      <c r="G22">
+      <c r="D35">
+        <v>600</v>
+      </c>
+      <c r="G35">
         <v>1800</v>
       </c>
-      <c r="M22">
+      <c r="J35">
+        <v>200</v>
+      </c>
+      <c r="M35">
         <v>1700</v>
       </c>
-      <c r="S22">
+      <c r="P35">
+        <v>400</v>
+      </c>
+      <c r="S35">
         <v>250</v>
       </c>
-      <c r="V22">
+      <c r="V35">
         <v>650</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
+      <c r="Z35" s="14">
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="11"/>
+      <c r="B36">
+        <v>1650</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
+        <v>600</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
         <v>1800</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="10">
-        <f>SUM(A22:A23)</f>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
+        <v>200</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11">
+        <v>1700</v>
+      </c>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11">
+        <v>400</v>
+      </c>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11">
+        <v>250</v>
+      </c>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11">
+        <v>650</v>
+      </c>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11">
+        <v>7720</v>
+      </c>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="12">
+        <v>9550</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
+        <v>320</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12">
+        <v>1830</v>
+      </c>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:26">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14">
+        <v>3920</v>
+      </c>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="14">
+        <f>SUM(A35:A37)</f>
+        <v>9550</v>
+      </c>
+      <c r="B39" s="14">
+        <f>SUM(B35:B36)</f>
+        <v>9550</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" ref="B39:Z39" si="1">SUM(C35:C36)</f>
         <v>0</v>
       </c>
-      <c r="B24" s="10">
-        <f t="shared" ref="B24:Z24" si="1">SUM(B22:B23)</f>
-        <v>7900</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="D39" s="14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D24" s="10">
+      <c r="G39" s="14">
+        <f>SUM(G35:G37)</f>
+        <v>3920</v>
+      </c>
+      <c r="H39" s="14">
+        <v>3920</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="10">
+      <c r="J39" s="14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="L39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="10">
+      <c r="M39" s="14">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="N39" s="14">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="O39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="10">
+      <c r="P39" s="14">
         <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="H24" s="10">
+        <v>400</v>
+      </c>
+      <c r="Q39" s="14">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="R39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="10">
+      <c r="S39" s="14">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="T39" s="14">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="U39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J24" s="10">
+      <c r="V39" s="14">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="W39" s="14">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="X39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K24" s="10">
+      <c r="Y39" s="14">
+        <f>SUM(Y35:Y37)</f>
+        <v>9550</v>
+      </c>
+      <c r="Z39" s="14">
         <f t="shared" si="1"/>
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="B40" s="14">
+        <f>A39-B39</f>
         <v>0</v>
       </c>
-      <c r="L24" s="10">
-        <f t="shared" si="1"/>
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="1"/>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="S40" s="14">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f>Z39-Y39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75"/>
+    <row r="43" spans="1:35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="M43" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="R43" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="28"/>
+      <c r="T43" s="29"/>
+      <c r="V43" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="29"/>
+      <c r="AA43" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="26"/>
+      <c r="AF43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG43" s="25"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="26"/>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="19">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>20000</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="H44" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>15500</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="M44" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="31">
+        <v>9550</v>
+      </c>
+      <c r="R44" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="31">
+        <v>60000</v>
+      </c>
+      <c r="V44" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" s="31"/>
+      <c r="AA44" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2">
+        <v>15500</v>
+      </c>
+      <c r="AD44" s="20"/>
+      <c r="AF44" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2">
+        <v>15500</v>
+      </c>
+      <c r="AI44" s="20"/>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>40000</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="H45" s="21"/>
+      <c r="K45" s="20"/>
+      <c r="M45" s="30"/>
+      <c r="P45" s="31"/>
+      <c r="R45" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="31">
+        <v>1830</v>
+      </c>
+      <c r="V45" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y45" s="31">
+        <v>15500</v>
+      </c>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="20"/>
+      <c r="AF45" s="21"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="20"/>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="20">
+        <v>60000</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="K46" s="20"/>
+      <c r="M46" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O46">
+        <v>600</v>
+      </c>
+      <c r="P46" s="31"/>
+      <c r="R46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T46" s="31">
+        <v>1500</v>
+      </c>
+      <c r="V46" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="31">
+        <v>1650</v>
+      </c>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="20"/>
+      <c r="AF46" s="21"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="20"/>
+    </row>
+    <row r="47" ht="15.75" spans="1:35">
+      <c r="A47" s="19">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="20">
         <v>1700</v>
       </c>
-      <c r="N24" s="10">
-        <f t="shared" si="1"/>
+      <c r="H47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="20"/>
+      <c r="M47" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47">
+        <v>3920</v>
+      </c>
+      <c r="P47" s="31"/>
+      <c r="R47" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="S47" s="34"/>
+      <c r="T47" s="37">
+        <f>SUM(T44:T45)-T46</f>
+        <v>60330</v>
+      </c>
+      <c r="V47" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="31">
+        <v>700</v>
+      </c>
+      <c r="AA47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2">
+        <v>1650</v>
+      </c>
+      <c r="AD47" s="20"/>
+      <c r="AF47" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2">
+        <v>1650</v>
+      </c>
+      <c r="AI47" s="20"/>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="H48" s="21"/>
+      <c r="K48" s="20"/>
+      <c r="M48" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48">
+        <v>200</v>
+      </c>
+      <c r="P48" s="31"/>
+      <c r="V48" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" s="31">
+        <v>3400</v>
+      </c>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="20"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="20"/>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="19">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1100</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="K49" s="20"/>
+      <c r="M49" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49">
+        <v>1700</v>
+      </c>
+      <c r="P49" s="31"/>
+      <c r="V49" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="X49">
+        <v>40000</v>
+      </c>
+      <c r="Y49" s="31"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="20"/>
+      <c r="AF49" s="21"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="20"/>
+    </row>
+    <row r="50" spans="1:35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>1100</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="H50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>1100</v>
+      </c>
+      <c r="K50" s="20"/>
+      <c r="M50" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50">
+        <v>400</v>
+      </c>
+      <c r="P50" s="31"/>
+      <c r="V50" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <v>600</v>
+      </c>
+      <c r="Y50" s="31">
+        <v>39400</v>
+      </c>
+      <c r="AA50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2">
+        <v>700</v>
+      </c>
+      <c r="AD50" s="20"/>
+      <c r="AF50" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2">
+        <v>700</v>
+      </c>
+      <c r="AI50" s="20"/>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51" s="19">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="20">
+        <v>3600</v>
+      </c>
+      <c r="H51" s="21"/>
+      <c r="K51" s="20"/>
+      <c r="M51" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51">
+        <v>250</v>
+      </c>
+      <c r="P51" s="31"/>
+      <c r="V51" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y51" s="32">
+        <f>SUM(Y45:Y50)</f>
+        <v>60650</v>
+      </c>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="20"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="20"/>
+    </row>
+    <row r="52" spans="1:35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="K52" s="20"/>
+      <c r="M52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52">
+        <v>650</v>
+      </c>
+      <c r="P52" s="32">
+        <f>SUM(O46:O52)</f>
+        <v>7720</v>
+      </c>
+      <c r="V52" s="30"/>
+      <c r="Y52" s="31"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="20"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="20"/>
+    </row>
+    <row r="53" ht="15.75" spans="1:35">
+      <c r="A53" s="19">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1800</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>3600</v>
+      </c>
+      <c r="K53" s="20"/>
+      <c r="M53" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="35">
+        <f>P44-P52</f>
+        <v>1830</v>
+      </c>
+      <c r="V53" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y53" s="31"/>
+      <c r="AA53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2">
+        <v>3400</v>
+      </c>
+      <c r="AD53" s="20"/>
+      <c r="AF53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2">
+        <v>3400</v>
+      </c>
+      <c r="AI53" s="20"/>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="A54" s="19"/>
+      <c r="B54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="H54" s="21"/>
+      <c r="K54" s="20"/>
+      <c r="V54" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y54" s="31">
+        <v>320</v>
+      </c>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="20"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="20"/>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="A55" s="19">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>7900</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="H55" s="21"/>
+      <c r="K55" s="20"/>
+      <c r="V55" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="31">
+        <v>60330</v>
+      </c>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="20"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="20"/>
+    </row>
+    <row r="56" ht="15.75" spans="1:35">
+      <c r="A56" s="19"/>
+      <c r="B56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="20">
+        <v>7900</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56">
+        <v>40000</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="V56" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="37">
+        <f>SUM(Y54:Y55)</f>
+        <v>60650</v>
+      </c>
+      <c r="AA56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AD56" s="20"/>
+      <c r="AF56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2">
+        <v>40000</v>
+      </c>
+      <c r="AI56" s="20"/>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="A57" s="19">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="K57" s="20"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="20"/>
+      <c r="AF57" s="21"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="20"/>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="A58" s="19"/>
+      <c r="B58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="H58" s="21"/>
+      <c r="K58" s="20"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="20"/>
+      <c r="AF58" s="21"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="20"/>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="A59" s="19">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="20">
+        <v>250</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="36"/>
+      <c r="K59" s="20"/>
+      <c r="AA59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="20"/>
+      <c r="AF59" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="20"/>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="A60" s="19"/>
+      <c r="B60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>250</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="H60" s="23"/>
+      <c r="K60" s="20"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="40">
+        <v>600</v>
+      </c>
+      <c r="AF60" s="23"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="A61" s="19">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="24">
+        <v>650</v>
+      </c>
+      <c r="H61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="20"/>
+      <c r="AF61" s="21"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="20"/>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="19"/>
+      <c r="B62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1">
+        <v>650</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="H62" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="20"/>
+      <c r="AA62" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="20"/>
+      <c r="AF62" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AI62" s="20"/>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="A63" s="19">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="24">
+        <v>1500</v>
+      </c>
+      <c r="H63" s="21"/>
+      <c r="K63" s="20"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="40">
+        <v>320</v>
+      </c>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="40">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="A64" s="19"/>
+      <c r="B64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="H64" s="21"/>
+      <c r="K64" s="20"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="20"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AI64" s="20"/>
+    </row>
+    <row r="65" ht="15.75" spans="1:35">
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43">
+        <f>SUM(D44:D64)</f>
+        <v>80300</v>
+      </c>
+      <c r="E65" s="44">
+        <f>SUM(E44:E64)</f>
+        <v>80300</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="AA65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="20"/>
+      <c r="AF65" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" s="2"/>
+      <c r="AI65" s="20"/>
+    </row>
+    <row r="66" ht="15.75" spans="8:35">
+      <c r="H66" s="21"/>
+      <c r="K66" s="20">
+        <v>60000</v>
+      </c>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="40">
+        <v>60000</v>
+      </c>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="2"/>
+      <c r="AI66" s="40">
+        <v>60330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="21"/>
+      <c r="K67" s="20"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="20"/>
+      <c r="AF67" s="21"/>
+      <c r="AG67" s="2"/>
+      <c r="AH67" s="2"/>
+      <c r="AI67" s="20"/>
+    </row>
+    <row r="68" spans="1:35">
+      <c r="A68" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="31">
+        <v>200</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68">
+        <v>1500</v>
+      </c>
+      <c r="K68" s="20"/>
+      <c r="AA68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2">
+        <v>1500</v>
+      </c>
+      <c r="AD68" s="20"/>
+      <c r="AF68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG68" s="2"/>
+      <c r="AH68" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI68" s="20"/>
+    </row>
+    <row r="69" spans="1:35">
+      <c r="A69" s="30"/>
+      <c r="B69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69" s="31"/>
+      <c r="H69" s="48"/>
+      <c r="K69" s="20"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="20"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="2"/>
+      <c r="AH69" s="2"/>
+      <c r="AI69" s="20"/>
+    </row>
+    <row r="70" spans="1:35">
+      <c r="A70" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="31">
+        <v>400</v>
+      </c>
+      <c r="H70" s="48"/>
+      <c r="K70" s="20"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="20"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="20"/>
+    </row>
+    <row r="71" spans="1:35">
+      <c r="A71" s="30"/>
+      <c r="B71" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>400</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="H71" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="20"/>
+      <c r="AA71" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="20"/>
+      <c r="AF71" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="20"/>
+    </row>
+    <row r="72" spans="1:35">
+      <c r="A72" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72">
+        <v>600</v>
+      </c>
+      <c r="E72" s="31"/>
+      <c r="H72" s="49"/>
+      <c r="K72" s="20">
+        <v>7900</v>
+      </c>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="40">
+        <v>9550</v>
+      </c>
+      <c r="AF72" s="49"/>
+      <c r="AG72" s="2"/>
+      <c r="AI72" s="40">
         <v>0</v>
       </c>
-      <c r="P24" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="73" spans="1:35">
+      <c r="A73" s="30"/>
+      <c r="B73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="E73" s="31">
+        <v>600</v>
+      </c>
+      <c r="H73" s="21"/>
+      <c r="K73" s="20"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="20"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="20"/>
+    </row>
+    <row r="74" spans="1:35">
+      <c r="A74" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>320</v>
+      </c>
+      <c r="E74" s="31"/>
+      <c r="H74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="36"/>
+      <c r="K74" s="20"/>
+      <c r="AA74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB74" s="39"/>
+      <c r="AC74" s="2">
+        <v>600</v>
+      </c>
+      <c r="AD74" s="20"/>
+      <c r="AF74" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG74" s="39"/>
+      <c r="AH74" s="2">
         <v>0</v>
       </c>
-      <c r="Q24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI74" s="20"/>
+    </row>
+    <row r="75" spans="1:35">
+      <c r="A75" s="30"/>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="31">
+        <v>320</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="K75" s="20"/>
+      <c r="AA75" s="49"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="20"/>
+      <c r="AF75" s="49"/>
+      <c r="AG75" s="2"/>
+      <c r="AH75" s="2"/>
+      <c r="AI75" s="20"/>
+    </row>
+    <row r="76" spans="1:35">
+      <c r="A76" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1650</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="H76" s="21"/>
+      <c r="K76" s="20"/>
+      <c r="AA76" s="21"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="20"/>
+      <c r="AF76" s="21"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="20"/>
+    </row>
+    <row r="77" ht="15.75" spans="1:35">
+      <c r="A77" s="33"/>
+      <c r="B77" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="35">
+        <v>1650</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77">
+        <v>3600</v>
+      </c>
+      <c r="K77" s="20"/>
+      <c r="AA77" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2">
+        <v>3920</v>
+      </c>
+      <c r="AD77" s="20"/>
+      <c r="AF77" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI77" s="20"/>
+    </row>
+    <row r="78" spans="8:35">
+      <c r="H78" s="49"/>
+      <c r="K78" s="20"/>
+      <c r="AA78" s="49"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="20"/>
+      <c r="AF78" s="49"/>
+      <c r="AG78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AI78" s="20"/>
+    </row>
+    <row r="79" spans="8:35">
+      <c r="H79" s="21"/>
+      <c r="K79" s="20"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="20"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="2"/>
+      <c r="AH79" s="2"/>
+      <c r="AI79" s="20"/>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="A80" s="45"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="20"/>
+      <c r="AA80" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2">
+        <v>200</v>
+      </c>
+      <c r="AD80" s="20"/>
+      <c r="AF80" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI80" s="20"/>
+    </row>
+    <row r="81" spans="1:35">
+      <c r="A81" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="14">
+        <v>9550</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="H81" s="49"/>
+      <c r="K81" s="20"/>
+      <c r="AA81" s="49"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="20"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="2"/>
+      <c r="AH81" s="2"/>
+      <c r="AI81" s="20"/>
+    </row>
+    <row r="82" spans="1:35">
+      <c r="A82" s="51"/>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="32">
+        <v>9550</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="K82" s="20"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="20"/>
+      <c r="AF82" s="21"/>
+      <c r="AG82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AI82" s="20"/>
+    </row>
+    <row r="83" spans="1:35">
+      <c r="A83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="H83" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="20"/>
+      <c r="AA83" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2">
+        <v>1700</v>
+      </c>
+      <c r="AD83" s="20"/>
+      <c r="AF83" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI83" s="20"/>
+    </row>
+    <row r="84" spans="1:35">
+      <c r="A84" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="E84" s="31">
+        <v>600</v>
+      </c>
+      <c r="H84" s="49"/>
+      <c r="K84" s="20"/>
+      <c r="AA84" s="49"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="20"/>
+      <c r="AF84" s="49"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AI84" s="20"/>
+    </row>
+    <row r="85" spans="1:35">
+      <c r="A85" s="51"/>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="32">
+        <v>3920</v>
+      </c>
+      <c r="H85" s="21"/>
+      <c r="K85" s="20"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="20"/>
+      <c r="AF85" s="21"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+      <c r="AI85" s="20"/>
+    </row>
+    <row r="86" spans="1:35">
+      <c r="A86" s="30"/>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="31">
+        <v>200</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="20"/>
+      <c r="AA86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2">
+        <v>400</v>
+      </c>
+      <c r="AD86" s="20"/>
+      <c r="AF86" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="20"/>
+    </row>
+    <row r="87" spans="1:35">
+      <c r="A87" s="30"/>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="32">
+        <v>1700</v>
+      </c>
+      <c r="H87" s="49"/>
+      <c r="K87" s="20"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="20"/>
+      <c r="AF87" s="49"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="20"/>
+    </row>
+    <row r="88" spans="1:35">
+      <c r="A88" s="30"/>
+      <c r="B88" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="52"/>
+      <c r="E88" s="31">
+        <v>400</v>
+      </c>
+      <c r="H88" s="21"/>
+      <c r="K88" s="20"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="20"/>
+      <c r="AF88" s="21"/>
+      <c r="AG88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AI88" s="20"/>
+    </row>
+    <row r="89" spans="1:35">
+      <c r="A89" s="30"/>
+      <c r="B89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="31">
         <v>250</v>
       </c>
-      <c r="T24" s="10">
-        <f t="shared" si="1"/>
+      <c r="H89" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>250</v>
+      </c>
+      <c r="K89" s="20"/>
+      <c r="AA89" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2">
+        <v>250</v>
+      </c>
+      <c r="AD89" s="20"/>
+      <c r="AF89" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG89" s="2"/>
+      <c r="AH89" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI89" s="20"/>
+    </row>
+    <row r="90" spans="1:35">
+      <c r="A90" s="30"/>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="31">
+        <v>650</v>
+      </c>
+      <c r="H90" s="49"/>
+      <c r="K90" s="20"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="20"/>
+      <c r="AF90" s="49"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="20"/>
+    </row>
+    <row r="91" spans="1:35">
+      <c r="A91" s="30"/>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="14">
+        <f>SUM(E84:E90)</f>
+        <v>7720</v>
+      </c>
+      <c r="E91" s="31"/>
+      <c r="H91" s="19"/>
+      <c r="K91" s="20"/>
+      <c r="AA91" s="19"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="20"/>
+      <c r="AF91" s="19"/>
+      <c r="AG91" s="2"/>
+      <c r="AH91" s="2"/>
+      <c r="AI91" s="20"/>
+    </row>
+    <row r="92" spans="1:35">
+      <c r="A92" s="30"/>
+      <c r="E92" s="31"/>
+      <c r="H92" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92">
+        <v>650</v>
+      </c>
+      <c r="K92" s="20"/>
+      <c r="AA92" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2">
+        <v>650</v>
+      </c>
+      <c r="AD92" s="20"/>
+      <c r="AF92" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG92" s="2"/>
+      <c r="AH92" s="2">
         <v>0</v>
       </c>
-      <c r="V24" s="10">
-        <f t="shared" si="1"/>
-        <v>650</v>
-      </c>
-      <c r="W24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AI92" s="20"/>
+    </row>
+    <row r="93" spans="1:35">
+      <c r="A93" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <f>E82-D91</f>
+        <v>1830</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="H93" s="19"/>
+      <c r="K93" s="20"/>
+      <c r="AA93" s="19"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="20"/>
+      <c r="AF93" s="19"/>
+      <c r="AG93" s="2"/>
+      <c r="AH93" s="2"/>
+      <c r="AI93" s="20"/>
+    </row>
+    <row r="94" spans="1:35">
+      <c r="A94" s="51"/>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="31">
+        <v>1830</v>
+      </c>
+      <c r="H94" s="19"/>
+      <c r="K94" s="20"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="20"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="2"/>
+      <c r="AH94" s="2"/>
+      <c r="AI94" s="20"/>
+    </row>
+    <row r="95" spans="1:35">
+      <c r="A95" s="51"/>
+      <c r="E95" s="31"/>
+      <c r="H95" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="20"/>
+      <c r="AA95" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="20"/>
+      <c r="AF95" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG95" s="2"/>
+      <c r="AH95" s="2"/>
+      <c r="AI95" s="20"/>
+    </row>
+    <row r="96" ht="15.75" spans="1:35">
+      <c r="A96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="43">
+        <f>SUM(J44:J95)</f>
+        <v>67900</v>
+      </c>
+      <c r="K96" s="44">
+        <f>SUM(K45:K95)</f>
+        <v>67900</v>
+      </c>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="42"/>
+      <c r="AC96" s="66">
+        <f ca="1">SUM(AC44:AC96)</f>
+        <v>70470</v>
+      </c>
+      <c r="AD96" s="44">
+        <f>SUM(AD45:AD95)</f>
+        <v>70470</v>
+      </c>
+      <c r="AF96" s="41"/>
+      <c r="AG96" s="42"/>
+      <c r="AH96" s="66">
+        <f>SUM(AH44:AH95)</f>
+        <v>61250</v>
+      </c>
+      <c r="AI96" s="44">
+        <f>SUM(AI45:AI95)</f>
+        <v>61250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="52"/>
+      <c r="E97" s="31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" spans="1:5">
+      <c r="A98" s="53"/>
+      <c r="B98" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34">
+        <v>1500</v>
+      </c>
+      <c r="E98" s="35"/>
+    </row>
+    <row r="101" ht="18.75" spans="1:1">
+      <c r="A101" s="54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="29"/>
+      <c r="G103" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" s="28"/>
+      <c r="I103" s="29"/>
+      <c r="K103" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="29"/>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" s="31">
+        <v>77750</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" s="31">
+        <v>40000</v>
+      </c>
+      <c r="K104" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N104" s="31"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="30"/>
+      <c r="E105" s="31"/>
+      <c r="G105" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="31">
+        <v>22650</v>
+      </c>
+      <c r="K105" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="N105" s="31">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D106">
+        <v>4000</v>
+      </c>
+      <c r="E106" s="31"/>
+      <c r="G106" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" s="31">
+        <v>15000</v>
+      </c>
+      <c r="K106" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N106" s="31">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" spans="1:14">
+      <c r="A107" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107">
+        <v>36500</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="G107" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="34"/>
+      <c r="I107" s="35">
+        <f>SUM(I104:I105)-I106</f>
+        <v>47650</v>
+      </c>
+      <c r="K107" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N107" s="31">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108">
+        <v>700</v>
+      </c>
+      <c r="E108" s="31"/>
+      <c r="K108" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M108">
+        <v>48000</v>
+      </c>
+      <c r="N108" s="31"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>9600</v>
+      </c>
+      <c r="E109" s="31"/>
+      <c r="K109" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M109">
+        <v>4000</v>
+      </c>
+      <c r="N109" s="31">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110">
+        <v>2600</v>
+      </c>
+      <c r="E110" s="31"/>
+      <c r="K110" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N110" s="32">
+        <f>SUM(N105:N109)</f>
+        <v>60150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>1700</v>
+      </c>
+      <c r="E111" s="32">
+        <f>SUM(D106:D111)</f>
+        <v>55100</v>
+      </c>
+      <c r="K111" s="30"/>
+      <c r="N111" s="31"/>
+    </row>
+    <row r="112" ht="15.75" spans="1:14">
+      <c r="A112" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="35">
+        <f>E104-E111</f>
+        <v>22650</v>
+      </c>
+      <c r="K112" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N112" s="31"/>
+    </row>
+    <row r="113" spans="11:14">
+      <c r="K113" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N113" s="31">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="114" spans="11:14">
+      <c r="K114" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="N114" s="31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="11:14">
+      <c r="K115" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" s="31">
+        <v>47650</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" spans="11:14">
+      <c r="K116" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="37">
+        <f>SUM(N113:N115)</f>
+        <v>60150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="45"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F117" s="55"/>
+      <c r="G117" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H117" s="56"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="30"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="58"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="30"/>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="60"/>
+      <c r="C120" s="61">
+        <v>13000</v>
+      </c>
+      <c r="D120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120">
+        <v>13000</v>
+      </c>
+      <c r="H120" s="31"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" s="60"/>
+      <c r="C121" s="61">
+        <v>1200</v>
+      </c>
+      <c r="D121" s="62"/>
+      <c r="F121" s="62"/>
+      <c r="G121">
+        <v>1200</v>
+      </c>
+      <c r="H121" s="31"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" s="60"/>
+      <c r="C122" s="61">
+        <v>1950</v>
+      </c>
+      <c r="D122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122">
+        <v>1950</v>
+      </c>
+      <c r="H122" s="31"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" s="60"/>
+      <c r="C123" s="61">
+        <v>48000</v>
+      </c>
+      <c r="D123" s="62"/>
+      <c r="F123" s="62"/>
+      <c r="G123">
+        <v>48000</v>
+      </c>
+      <c r="H123" s="31"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B124" s="60"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="62">
+        <v>4000</v>
+      </c>
+      <c r="F124" s="62"/>
+      <c r="H124" s="31">
+        <v>4000</v>
+      </c>
+      <c r="L124" s="65"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125" s="60"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="62">
+        <v>12000</v>
+      </c>
+      <c r="F125" s="62"/>
+      <c r="H125" s="31">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" s="60"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="62">
+        <v>500</v>
+      </c>
+      <c r="F126" s="62"/>
+      <c r="H126" s="31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="62">
+        <v>40000</v>
+      </c>
+      <c r="E127">
+        <v>15000</v>
+      </c>
+      <c r="F127" s="62">
+        <f>77750-55100</f>
+        <v>22650</v>
+      </c>
+      <c r="H127" s="31">
+        <f>D127+F127-E127</f>
+        <v>47650</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="60"/>
+      <c r="C128" s="61">
+        <v>15000</v>
+      </c>
+      <c r="D128" s="62"/>
+      <c r="F128" s="62">
+        <v>15000</v>
+      </c>
+      <c r="H128" s="31">
         <v>0</v>
       </c>
-      <c r="X24" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" s="60"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="62">
+        <v>77750</v>
+      </c>
+      <c r="E129">
+        <v>77750</v>
+      </c>
+      <c r="F129" s="62"/>
+      <c r="H129" s="31">
         <v>0</v>
       </c>
-      <c r="Y24" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="60"/>
+      <c r="C130" s="61">
+        <v>4000</v>
+      </c>
+      <c r="D130" s="62"/>
+      <c r="F130" s="62">
+        <v>4000</v>
+      </c>
+      <c r="H130" s="31">
         <v>0</v>
       </c>
-      <c r="Z24" s="10">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="60"/>
+      <c r="C131" s="61">
+        <v>36500</v>
+      </c>
+      <c r="D131" s="62"/>
+      <c r="F131" s="62">
+        <v>36500</v>
+      </c>
+      <c r="H131" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:22">
-      <c r="B25" s="10">
-        <f>SUM(B23:B24)</f>
+      <c r="J131" s="14"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="60"/>
+      <c r="C132" s="61">
+        <v>700</v>
+      </c>
+      <c r="D132" s="62"/>
+      <c r="F132" s="62">
+        <v>700</v>
+      </c>
+      <c r="H132" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" s="60"/>
+      <c r="C133" s="61">
+        <v>9600</v>
+      </c>
+      <c r="D133" s="62"/>
+      <c r="F133" s="62">
+        <v>9600</v>
+      </c>
+      <c r="H133" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="60"/>
+      <c r="C134" s="61">
+        <v>2600</v>
+      </c>
+      <c r="D134" s="62"/>
+      <c r="F134" s="62">
+        <v>2600</v>
+      </c>
+      <c r="H134" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B135" s="60"/>
+      <c r="C135" s="67">
+        <v>1700</v>
+      </c>
+      <c r="D135" s="68"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="68">
+        <v>1700</v>
+      </c>
+      <c r="G135" s="69"/>
+      <c r="H135" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B136" s="72"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="13">
+        <f>SUM(F130:F135)+22650</f>
+        <v>77750</v>
+      </c>
+      <c r="F136" s="74">
+        <v>77750</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" spans="1:8">
+      <c r="A137" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="34"/>
+      <c r="C137" s="76">
+        <f>SUM(C120:C135)</f>
+        <v>134250</v>
+      </c>
+      <c r="D137" s="77">
+        <f>SUM(D120:D135)</f>
+        <v>134250</v>
+      </c>
+      <c r="E137" s="66"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="66">
+        <f>SUM(G120:G136)</f>
+        <v>64150</v>
+      </c>
+      <c r="H137" s="37">
+        <f>SUM(H120:H136)</f>
+        <v>64150</v>
+      </c>
+    </row>
+    <row r="140" ht="19.5" spans="1:1">
+      <c r="A140" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="29"/>
+      <c r="F141" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="G141" s="79"/>
+      <c r="H141" s="80"/>
+      <c r="J141" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" s="28"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="29"/>
+      <c r="O141" t="s">
+        <v>70</v>
+      </c>
+      <c r="P141">
+        <f>13100/((200000+178100)/2)</f>
+        <v>0.0692938376090981</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142">
+        <v>96000</v>
+      </c>
+      <c r="D142" s="31"/>
+      <c r="F142" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="40">
+        <v>82700</v>
+      </c>
+      <c r="J142" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M142" s="31"/>
+    </row>
+    <row r="143" ht="15.75" spans="1:16">
+      <c r="A143" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143">
+        <v>13000</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="F143" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="40">
+        <v>13100</v>
+      </c>
+      <c r="J143" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M143" s="31">
+        <v>4000</v>
+      </c>
+      <c r="O143" t="s">
+        <v>74</v>
+      </c>
+      <c r="P143" s="14">
+        <f>SUM(M155:M161)/M152</f>
+        <v>0.529477821448624</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144">
+        <v>1900</v>
+      </c>
+      <c r="D144" s="31"/>
+      <c r="F144" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="40">
+        <v>12000</v>
+      </c>
+      <c r="J144" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="M144" s="31">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" spans="1:13">
+      <c r="A145" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145">
+        <v>1000</v>
+      </c>
+      <c r="D145" s="31"/>
+      <c r="F145" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="82"/>
+      <c r="H145" s="83">
+        <f>H142+H143-H144</f>
+        <v>83800</v>
+      </c>
+      <c r="J145" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="M145" s="31">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="30"/>
+      <c r="D146" s="32">
+        <f>SUM(C142:C145)</f>
+        <v>111900</v>
+      </c>
+      <c r="J146" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M146" s="31">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147">
+        <v>10000</v>
+      </c>
+      <c r="D147" s="31"/>
+      <c r="J147" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L147">
+        <v>39000</v>
+      </c>
+      <c r="M147" s="31"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148">
+        <v>5000</v>
+      </c>
+      <c r="D148" s="31"/>
+      <c r="J148" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L148">
+        <v>20000</v>
+      </c>
+      <c r="M148" s="31">
+        <f>L147-L148</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149">
+        <v>31000</v>
+      </c>
+      <c r="D149" s="31"/>
+      <c r="J149" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="L149">
+        <v>130000</v>
+      </c>
+      <c r="M149" s="31"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150">
+        <v>4100</v>
+      </c>
+      <c r="D150" s="31"/>
+      <c r="J150" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L150">
+        <v>55000</v>
+      </c>
+      <c r="M150" s="31">
+        <f>L149-L150</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151">
+        <v>9000</v>
+      </c>
+      <c r="D151" s="31"/>
+      <c r="J151" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="M151" s="31">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C152">
+        <v>12400</v>
+      </c>
+      <c r="D152" s="31"/>
+      <c r="J152" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M152" s="32">
+        <f>SUM(M143:M151)</f>
+        <v>178100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C153">
+        <v>6400</v>
+      </c>
+      <c r="D153" s="31"/>
+      <c r="J153" s="30"/>
+      <c r="M153" s="31"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C154">
+        <v>3200</v>
+      </c>
+      <c r="D154" s="31"/>
+      <c r="J154" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M154" s="31"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155">
+        <v>4000</v>
+      </c>
+      <c r="D155" s="31"/>
+      <c r="J155" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M155" s="31">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C156">
         <v>7900</v>
       </c>
-      <c r="G25" s="10">
+      <c r="D156" s="31"/>
+      <c r="J156" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M156" s="31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157">
+        <v>2200</v>
+      </c>
+      <c r="D157" s="31"/>
+      <c r="J157" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M157" s="31">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158">
         <v>3600</v>
       </c>
-      <c r="M25" s="10">
-        <f>SUM(M23:M24)</f>
-        <v>1700</v>
-      </c>
-      <c r="S25" s="10">
-        <f>SUM(S23:S24)</f>
-        <v>250</v>
-      </c>
-      <c r="V25" s="10">
-        <f>SUM(V23:V24)</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="28"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="15">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>20000</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="H29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>15500</v>
-      </c>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>40000</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="16">
-        <v>60000</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="15">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="16">
-        <v>1700</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33">
-        <v>1700</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="15">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1100</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1100</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="H35" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35">
-        <v>1100</v>
-      </c>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="15">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="16">
-        <v>3600</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="15"/>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>3600</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="15">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="16">
-        <v>1800</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38">
-        <v>3600</v>
-      </c>
-      <c r="K38" s="16"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="15"/>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
-        <v>1800</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="K39" s="16"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="15">
-        <v>24</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>7900</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="K40" s="16"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="15"/>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="16">
-        <v>7900</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41">
-        <v>40000</v>
-      </c>
-      <c r="K41" s="16"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="15">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="16">
-        <v>1800</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="K42" s="16"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="15"/>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>1800</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="K43" s="16"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="15">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="16">
-        <v>250</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="K44" s="16"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45">
-        <v>250</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="H45" s="19"/>
-      <c r="K45" s="16"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="15">
+      <c r="D158" s="31"/>
+      <c r="J158" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="M158" s="31">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="30"/>
+      <c r="D159" s="32">
+        <f>SUM(C147:C158)</f>
+        <v>98800</v>
+      </c>
+      <c r="J159" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M159" s="31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" spans="1:13">
+      <c r="A160" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="20">
-        <v>650</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="K46" s="16"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="15"/>
-      <c r="B47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="1">
-        <v>650</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="H47" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="15">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="20">
-        <v>1500</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="K48" s="16"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="15"/>
-      <c r="B49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="K49" s="16"/>
-    </row>
-    <row r="50" ht="15" spans="1:11">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23">
-        <f>SUM(D29:D49)</f>
-        <v>80300</v>
-      </c>
-      <c r="E50" s="24">
-        <f>SUM(E29:E49)</f>
-        <v>80300</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K50" s="16"/>
-    </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="17"/>
-      <c r="K51" s="16">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="17"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53">
-        <v>1500</v>
-      </c>
-      <c r="K53" s="16"/>
-    </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="25"/>
-      <c r="K54" s="16"/>
-    </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="25"/>
-      <c r="K55" s="16"/>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="16"/>
-    </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="26"/>
-      <c r="K57" s="16">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11">
-      <c r="H58" s="17"/>
-      <c r="K58" s="16"/>
-    </row>
-    <row r="59" spans="8:11">
-      <c r="H59" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="29"/>
-      <c r="K59" s="16"/>
-    </row>
-    <row r="60" spans="8:11">
-      <c r="H60" s="26"/>
-      <c r="K60" s="16"/>
-    </row>
-    <row r="61" spans="8:11">
-      <c r="H61" s="17"/>
-      <c r="K61" s="16"/>
-    </row>
-    <row r="62" spans="8:11">
-      <c r="H62" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J62">
-        <v>3600</v>
-      </c>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="8:11">
-      <c r="H63" s="26"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="8:11">
-      <c r="H64" s="17"/>
-      <c r="K64" s="16"/>
-    </row>
-    <row r="65" spans="8:11">
-      <c r="H65" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="8:11">
-      <c r="H66" s="26"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="8:11">
-      <c r="H67" s="17"/>
-      <c r="K67" s="16"/>
-    </row>
-    <row r="68" spans="8:11">
-      <c r="H68" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J68">
-        <v>1700</v>
-      </c>
-      <c r="K68" s="16"/>
-    </row>
-    <row r="69" spans="8:11">
-      <c r="H69" s="26"/>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="8:11">
-      <c r="H70" s="17"/>
-      <c r="K70" s="16"/>
-    </row>
-    <row r="71" spans="8:11">
-      <c r="H71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="16"/>
-    </row>
-    <row r="72" spans="8:11">
-      <c r="H72" s="26"/>
-      <c r="K72" s="16"/>
-    </row>
-    <row r="73" spans="8:11">
-      <c r="H73" s="17"/>
-      <c r="K73" s="16"/>
-    </row>
-    <row r="74" spans="8:11">
-      <c r="H74" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74">
-        <v>250</v>
-      </c>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="8:11">
-      <c r="H75" s="26"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row r="76" spans="8:11">
-      <c r="H76" s="15"/>
-      <c r="K76" s="16"/>
-    </row>
-    <row r="77" spans="8:11">
-      <c r="H77" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77">
-        <v>650</v>
-      </c>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="8:11">
-      <c r="H78" s="15"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="8:11">
-      <c r="H79" s="15"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="8:11">
-      <c r="H80" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="16"/>
-    </row>
-    <row r="81" ht="15" spans="8:11">
-      <c r="H81" s="21"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="23">
-        <f>SUM(J29:J80)</f>
-        <v>67900</v>
-      </c>
-      <c r="K81" s="24">
-        <f>SUM(K30:K80)</f>
-        <v>67900</v>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="35">
+        <f>D146-D159</f>
+        <v>13100</v>
+      </c>
+      <c r="J160" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M160" s="31">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="161" spans="10:13">
+      <c r="J161" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M161" s="31">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="162" spans="10:13">
+      <c r="J162" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" s="31">
+        <v>83800</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" spans="10:13">
+      <c r="J163" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K163" s="34"/>
+      <c r="L163" s="34"/>
+      <c r="M163" s="37">
+        <f>SUM(M155:M162)</f>
+        <v>178100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H44:I44"/>
+  <mergeCells count="70">
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AA43:AD43"/>
+    <mergeCell ref="AF43:AI43"/>
     <mergeCell ref="H59:I59"/>
+    <mergeCell ref="AA59:AB59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="AA74:AB74"/>
+    <mergeCell ref="AF74:AG74"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:N103"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="J141:M141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="E117:F118"/>
+    <mergeCell ref="G117:H118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="G39" formula="1"/>
+    <ignoredError sqref="P143 E136" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chapter 4.xlsx
+++ b/Chapter 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12300"/>
+    <workbookView windowWidth="11520" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="104">
   <si>
     <t>Chapter 4</t>
   </si>
@@ -269,9 +269,15 @@
     <t>Supplies</t>
   </si>
   <si>
+    <t>Profit margin ratio</t>
+  </si>
+  <si>
     <t>Depreciation expense—Building</t>
   </si>
   <si>
+    <t>current ratio</t>
+  </si>
+  <si>
     <t>Building</t>
   </si>
   <si>
@@ -312,6 +318,27 @@
   </si>
   <si>
     <t>Long-term notes payable</t>
+  </si>
+  <si>
+    <t>4-5A</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Utilities payable</t>
+  </si>
+  <si>
+    <t>S. Adam, Capital</t>
+  </si>
+  <si>
+    <t>S. Adams, Withdrawals</t>
+  </si>
+  <si>
+    <t>Construction fees earned</t>
+  </si>
+  <si>
+    <t>4-6A</t>
   </si>
 </sst>
 </file>
@@ -503,12 +530,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -697,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -857,6 +890,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -980,7 +1024,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,119 +1036,119 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,9 +1182,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1186,175 +1227,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1662,8 +1724,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="828675"/>
-          <a:ext cx="6194425" cy="2388870"/>
+          <a:off x="9525" y="800100"/>
+          <a:ext cx="6651625" cy="2284095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1937,37 +1999,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI163"/>
+  <dimension ref="A1:AI220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J129" workbookViewId="0">
-      <selection activeCell="O145" sqref="O145"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
   <cols>
-    <col min="16" max="16" width="12.8571428571429"/>
+    <col min="16" max="16" width="12.858407079646"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:1">
+    <row r="1" ht="30.75" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:1">
+    <row r="3" ht="18" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18.75" spans="1:1">
+    <row r="13" ht="18" spans="1:1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" ht="18.75" spans="1:1">
+    <row r="14" ht="18" spans="1:1">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" ht="18.75" spans="1:1">
+    <row r="15" ht="18" spans="1:1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" ht="18.75" spans="1:1">
+    <row r="16" ht="18" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -2562,249 +2624,249 @@
       <c r="V35">
         <v>650</v>
       </c>
-      <c r="Z35" s="14">
+      <c r="Z35" s="13">
         <v>9550</v>
       </c>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="11"/>
+      <c r="A36" s="2"/>
       <c r="B36">
         <v>1650</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>600</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
         <v>1800</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2">
         <v>200</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2">
         <v>1700</v>
       </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2">
         <v>400</v>
       </c>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2">
         <v>250</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11">
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2">
         <v>650</v>
       </c>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11">
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
         <v>7720</v>
       </c>
-      <c r="Z36" s="11"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>9550</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
         <v>320</v>
       </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11">
         <v>1830</v>
       </c>
-      <c r="Z37" s="12"/>
+      <c r="Z37" s="11"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:26">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13">
         <v>3920</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <f>SUM(A35:A37)</f>
         <v>9550</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f>SUM(B35:B36)</f>
         <v>9550</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <f t="shared" ref="B39:Z39" si="1">SUM(C35:C36)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <f>SUM(G35:G37)</f>
         <v>3920</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>3920</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="13">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="R39" s="14">
+      <c r="R39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S39" s="14">
+      <c r="S39" s="13">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="T39" s="14">
+      <c r="T39" s="13">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="U39" s="14">
+      <c r="U39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="13">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="13">
         <f t="shared" si="1"/>
         <v>650</v>
       </c>
-      <c r="X39" s="14">
+      <c r="X39" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="14">
+      <c r="Y39" s="13">
         <f>SUM(Y35:Y37)</f>
         <v>9550</v>
       </c>
-      <c r="Z39" s="14">
+      <c r="Z39" s="13">
         <f t="shared" si="1"/>
         <v>9550</v>
       </c>
     </row>
     <row r="40" spans="2:26">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f>A39-B39</f>
         <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="13">
         <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="S40" s="14">
-        <v>0</v>
-      </c>
-      <c r="V40" s="14">
+      <c r="S40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="13">
         <v>0</v>
       </c>
       <c r="Z40">
@@ -2812,55 +2874,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75"/>
+    <row r="42" ht="15"/>
     <row r="43" spans="1:35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="26"/>
-      <c r="M43" s="27" t="s">
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="25"/>
+      <c r="M43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="29"/>
-      <c r="R43" s="27" t="s">
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="R43" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="28"/>
-      <c r="T43" s="29"/>
-      <c r="V43" s="27" t="s">
+      <c r="S43" s="24"/>
+      <c r="T43" s="25"/>
+      <c r="V43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="29"/>
-      <c r="AA43" s="18" t="s">
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="25"/>
+      <c r="AA43" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="26"/>
-      <c r="AF43" s="18" t="s">
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="25"/>
+      <c r="AF43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="26"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="25"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="19">
+      <c r="A44" s="18">
         <v>1</v>
       </c>
       <c r="B44" t="s">
@@ -2869,430 +2931,430 @@
       <c r="D44">
         <v>20000</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="H44" s="21" t="s">
+      <c r="E44" s="19"/>
+      <c r="H44" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J44">
         <v>15500</v>
       </c>
-      <c r="K44" s="20"/>
-      <c r="M44" s="30" t="s">
+      <c r="K44" s="19"/>
+      <c r="M44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P44" s="31">
+      <c r="P44" s="19">
         <v>9550</v>
       </c>
-      <c r="R44" s="30" t="s">
+      <c r="R44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T44" s="31">
+      <c r="T44" s="19">
         <v>60000</v>
       </c>
-      <c r="V44" s="30" t="s">
+      <c r="V44" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Y44" s="31"/>
-      <c r="AA44" s="21" t="s">
+      <c r="Y44" s="19"/>
+      <c r="AA44" s="20" t="s">
         <v>3</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2">
         <v>15500</v>
       </c>
-      <c r="AD44" s="20"/>
-      <c r="AF44" s="21" t="s">
+      <c r="AD44" s="19"/>
+      <c r="AF44" s="20" t="s">
         <v>3</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2">
         <v>15500</v>
       </c>
-      <c r="AI44" s="20"/>
+      <c r="AI44" s="19"/>
     </row>
     <row r="45" spans="1:35">
-      <c r="A45" s="19"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D45">
         <v>40000</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="K45" s="20"/>
-      <c r="M45" s="30"/>
-      <c r="P45" s="31"/>
-      <c r="R45" s="30" t="s">
+      <c r="E45" s="19"/>
+      <c r="H45" s="20"/>
+      <c r="K45" s="19"/>
+      <c r="M45" s="18"/>
+      <c r="P45" s="19"/>
+      <c r="R45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="T45" s="31">
+      <c r="T45" s="19">
         <v>1830</v>
       </c>
-      <c r="V45" s="30" t="s">
+      <c r="V45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="Y45" s="31">
+      <c r="Y45" s="19">
         <v>15500</v>
       </c>
-      <c r="AA45" s="21"/>
+      <c r="AA45" s="20"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="20"/>
-      <c r="AF45" s="21"/>
+      <c r="AD45" s="19"/>
+      <c r="AF45" s="20"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
-      <c r="AI45" s="20"/>
+      <c r="AI45" s="19"/>
     </row>
     <row r="46" spans="1:35">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>60000</v>
       </c>
-      <c r="H46" s="21"/>
-      <c r="K46" s="20"/>
-      <c r="M46" s="30" t="s">
+      <c r="H46" s="20"/>
+      <c r="K46" s="19"/>
+      <c r="M46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="O46">
         <v>600</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="R46" s="30" t="s">
+      <c r="P46" s="19"/>
+      <c r="R46" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="T46" s="31">
+      <c r="T46" s="19">
         <v>1500</v>
       </c>
-      <c r="V46" s="30" t="s">
+      <c r="V46" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Y46" s="31">
+      <c r="Y46" s="19">
         <v>1650</v>
       </c>
-      <c r="AA46" s="21"/>
+      <c r="AA46" s="20"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="20"/>
-      <c r="AF46" s="21"/>
+      <c r="AD46" s="19"/>
+      <c r="AF46" s="20"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
-      <c r="AI46" s="20"/>
-    </row>
-    <row r="47" ht="15.75" spans="1:35">
-      <c r="A47" s="19">
+      <c r="AI46" s="19"/>
+    </row>
+    <row r="47" ht="15" spans="1:35">
+      <c r="A47" s="18">
         <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>1700</v>
       </c>
-      <c r="H47" s="21" t="s">
+      <c r="H47" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="M47" s="30" t="s">
+      <c r="K47" s="19"/>
+      <c r="M47" s="18" t="s">
         <v>16</v>
       </c>
       <c r="O47">
         <v>3920</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="R47" s="33" t="s">
+      <c r="P47" s="19"/>
+      <c r="R47" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="S47" s="34"/>
-      <c r="T47" s="37">
+      <c r="S47" s="28"/>
+      <c r="T47" s="31">
         <f>SUM(T44:T45)-T46</f>
         <v>60330</v>
       </c>
-      <c r="V47" s="30" t="s">
+      <c r="V47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Y47" s="31">
+      <c r="Y47" s="19">
         <v>700</v>
       </c>
-      <c r="AA47" s="21" t="s">
+      <c r="AA47" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2">
         <v>1650</v>
       </c>
-      <c r="AD47" s="20"/>
-      <c r="AF47" s="21" t="s">
+      <c r="AD47" s="19"/>
+      <c r="AF47" s="20" t="s">
         <v>4</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2">
         <v>1650</v>
       </c>
-      <c r="AI47" s="20"/>
+      <c r="AI47" s="19"/>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D48">
         <v>1700</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="K48" s="20"/>
-      <c r="M48" s="30" t="s">
+      <c r="E48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="K48" s="19"/>
+      <c r="M48" s="18" t="s">
         <v>17</v>
       </c>
       <c r="O48">
         <v>200</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="V48" s="30" t="s">
+      <c r="P48" s="19"/>
+      <c r="V48" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Y48" s="31">
+      <c r="Y48" s="19">
         <v>3400</v>
       </c>
-      <c r="AA48" s="21"/>
+      <c r="AA48" s="20"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="20"/>
-      <c r="AF48" s="21"/>
+      <c r="AD48" s="19"/>
+      <c r="AF48" s="20"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
-      <c r="AI48" s="20"/>
+      <c r="AI48" s="19"/>
     </row>
     <row r="49" spans="1:35">
-      <c r="A49" s="19">
+      <c r="A49" s="18">
         <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>1100</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="K49" s="20"/>
-      <c r="M49" s="30" t="s">
+      <c r="H49" s="20"/>
+      <c r="K49" s="19"/>
+      <c r="M49" s="18" t="s">
         <v>18</v>
       </c>
       <c r="O49">
         <v>1700</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="V49" s="30" t="s">
+      <c r="P49" s="19"/>
+      <c r="V49" s="18" t="s">
         <v>7</v>
       </c>
       <c r="X49">
         <v>40000</v>
       </c>
-      <c r="Y49" s="31"/>
-      <c r="AA49" s="21"/>
+      <c r="Y49" s="19"/>
+      <c r="AA49" s="20"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="20"/>
-      <c r="AF49" s="21"/>
+      <c r="AD49" s="19"/>
+      <c r="AF49" s="20"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
-      <c r="AI49" s="20"/>
+      <c r="AI49" s="19"/>
     </row>
     <row r="50" spans="1:35">
-      <c r="A50" s="19"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D50">
         <v>1100</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="H50" s="21" t="s">
+      <c r="E50" s="19"/>
+      <c r="H50" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J50">
         <v>1100</v>
       </c>
-      <c r="K50" s="20"/>
-      <c r="M50" s="30" t="s">
+      <c r="K50" s="19"/>
+      <c r="M50" s="18" t="s">
         <v>19</v>
       </c>
       <c r="O50">
         <v>400</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="V50" s="30" t="s">
+      <c r="P50" s="19"/>
+      <c r="V50" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X50">
         <v>600</v>
       </c>
-      <c r="Y50" s="31">
+      <c r="Y50" s="19">
         <v>39400</v>
       </c>
-      <c r="AA50" s="21" t="s">
+      <c r="AA50" s="20" t="s">
         <v>5</v>
       </c>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2">
         <v>700</v>
       </c>
-      <c r="AD50" s="20"/>
-      <c r="AF50" s="21" t="s">
+      <c r="AD50" s="19"/>
+      <c r="AF50" s="20" t="s">
         <v>5</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2">
         <v>700</v>
       </c>
-      <c r="AI50" s="20"/>
+      <c r="AI50" s="19"/>
     </row>
     <row r="51" spans="1:35">
-      <c r="A51" s="19">
+      <c r="A51" s="18">
         <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>3600</v>
       </c>
-      <c r="H51" s="21"/>
-      <c r="K51" s="20"/>
-      <c r="M51" s="30" t="s">
+      <c r="H51" s="20"/>
+      <c r="K51" s="19"/>
+      <c r="M51" s="18" t="s">
         <v>20</v>
       </c>
       <c r="O51">
         <v>250</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="V51" s="30" t="s">
+      <c r="P51" s="19"/>
+      <c r="V51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y51" s="32">
+      <c r="Y51" s="26">
         <f>SUM(Y45:Y50)</f>
         <v>60650</v>
       </c>
-      <c r="AA51" s="21"/>
+      <c r="AA51" s="20"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="20"/>
-      <c r="AF51" s="21"/>
+      <c r="AD51" s="19"/>
+      <c r="AF51" s="20"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
-      <c r="AI51" s="20"/>
+      <c r="AI51" s="19"/>
     </row>
     <row r="52" spans="1:35">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D52">
         <v>3600</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="K52" s="20"/>
-      <c r="M52" s="30" t="s">
+      <c r="E52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="M52" s="18" t="s">
         <v>21</v>
       </c>
       <c r="O52">
         <v>650</v>
       </c>
-      <c r="P52" s="32">
+      <c r="P52" s="26">
         <f>SUM(O46:O52)</f>
         <v>7720</v>
       </c>
-      <c r="V52" s="30"/>
-      <c r="Y52" s="31"/>
-      <c r="AA52" s="21"/>
+      <c r="V52" s="18"/>
+      <c r="Y52" s="19"/>
+      <c r="AA52" s="20"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="20"/>
-      <c r="AF52" s="21"/>
+      <c r="AD52" s="19"/>
+      <c r="AF52" s="20"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
-      <c r="AI52" s="20"/>
-    </row>
-    <row r="53" ht="15.75" spans="1:35">
-      <c r="A53" s="19">
+      <c r="AI52" s="19"/>
+    </row>
+    <row r="53" ht="15" spans="1:35">
+      <c r="A53" s="18">
         <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>1800</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="20" t="s">
         <v>6</v>
       </c>
       <c r="J53">
         <v>3600</v>
       </c>
-      <c r="K53" s="20"/>
-      <c r="M53" s="33" t="s">
+      <c r="K53" s="19"/>
+      <c r="M53" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="35">
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="29">
         <f>P44-P52</f>
         <v>1830</v>
       </c>
-      <c r="V53" s="30" t="s">
+      <c r="V53" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Y53" s="31"/>
-      <c r="AA53" s="21" t="s">
+      <c r="Y53" s="19"/>
+      <c r="AA53" s="20" t="s">
         <v>6</v>
       </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2">
         <v>3400</v>
       </c>
-      <c r="AD53" s="20"/>
-      <c r="AF53" s="21" t="s">
+      <c r="AD53" s="19"/>
+      <c r="AF53" s="20" t="s">
         <v>6</v>
       </c>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2">
         <v>3400</v>
       </c>
-      <c r="AI53" s="20"/>
+      <c r="AI53" s="19"/>
     </row>
     <row r="54" spans="1:35">
-      <c r="A54" s="19"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D54">
         <v>1800</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="K54" s="20"/>
-      <c r="V54" s="30" t="s">
+      <c r="E54" s="19"/>
+      <c r="H54" s="20"/>
+      <c r="K54" s="19"/>
+      <c r="V54" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Y54" s="31">
+      <c r="Y54" s="19">
         <v>320</v>
       </c>
-      <c r="AA54" s="21"/>
+      <c r="AA54" s="20"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="20"/>
-      <c r="AF54" s="21"/>
+      <c r="AD54" s="19"/>
+      <c r="AF54" s="20"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
-      <c r="AI54" s="20"/>
+      <c r="AI54" s="19"/>
     </row>
     <row r="55" spans="1:35">
-      <c r="A55" s="19">
+      <c r="A55" s="18">
         <v>24</v>
       </c>
       <c r="B55" t="s">
@@ -3301,420 +3363,420 @@
       <c r="D55">
         <v>7900</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="H55" s="21"/>
-      <c r="K55" s="20"/>
-      <c r="V55" s="38" t="s">
+      <c r="E55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="K55" s="19"/>
+      <c r="V55" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Y55" s="31">
+      <c r="Y55" s="19">
         <v>60330</v>
       </c>
-      <c r="AA55" s="21"/>
+      <c r="AA55" s="20"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="20"/>
-      <c r="AF55" s="21"/>
+      <c r="AD55" s="19"/>
+      <c r="AF55" s="20"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
-      <c r="AI55" s="20"/>
-    </row>
-    <row r="56" ht="15.75" spans="1:35">
-      <c r="A56" s="19"/>
+      <c r="AI55" s="19"/>
+    </row>
+    <row r="56" ht="15" spans="1:35">
+      <c r="A56" s="18"/>
       <c r="B56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>7900</v>
       </c>
-      <c r="H56" s="21" t="s">
+      <c r="H56" s="20" t="s">
         <v>7</v>
       </c>
       <c r="J56">
         <v>40000</v>
       </c>
-      <c r="K56" s="20"/>
-      <c r="V56" s="33" t="s">
+      <c r="K56" s="19"/>
+      <c r="V56" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="37">
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="31">
         <f>SUM(Y54:Y55)</f>
         <v>60650</v>
       </c>
-      <c r="AA56" s="21" t="s">
+      <c r="AA56" s="20" t="s">
         <v>7</v>
       </c>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2">
         <v>40000</v>
       </c>
-      <c r="AD56" s="20"/>
-      <c r="AF56" s="21" t="s">
+      <c r="AD56" s="19"/>
+      <c r="AF56" s="20" t="s">
         <v>7</v>
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" s="2">
         <v>40000</v>
       </c>
-      <c r="AI56" s="20"/>
+      <c r="AI56" s="19"/>
     </row>
     <row r="57" spans="1:35">
-      <c r="A57" s="19">
+      <c r="A57" s="18">
         <v>28</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>1800</v>
       </c>
-      <c r="H57" s="21"/>
-      <c r="K57" s="20"/>
-      <c r="AA57" s="21"/>
+      <c r="H57" s="20"/>
+      <c r="K57" s="19"/>
+      <c r="AA57" s="20"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="20"/>
-      <c r="AF57" s="21"/>
+      <c r="AD57" s="19"/>
+      <c r="AF57" s="20"/>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
-      <c r="AI57" s="20"/>
+      <c r="AI57" s="19"/>
     </row>
     <row r="58" spans="1:35">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D58">
         <v>1800</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="H58" s="21"/>
-      <c r="K58" s="20"/>
-      <c r="AA58" s="21"/>
+      <c r="E58" s="19"/>
+      <c r="H58" s="20"/>
+      <c r="K58" s="19"/>
+      <c r="AA58" s="20"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="20"/>
-      <c r="AF58" s="21"/>
+      <c r="AD58" s="19"/>
+      <c r="AF58" s="20"/>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
-      <c r="AI58" s="20"/>
+      <c r="AI58" s="19"/>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="19">
+      <c r="A59" s="18">
         <v>29</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>250</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="36"/>
-      <c r="K59" s="20"/>
-      <c r="AA59" s="22" t="s">
+      <c r="I59" s="30"/>
+      <c r="K59" s="19"/>
+      <c r="AA59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AB59" s="39"/>
+      <c r="AB59" s="33"/>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="20"/>
-      <c r="AF59" s="22" t="s">
+      <c r="AD59" s="19"/>
+      <c r="AF59" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AG59" s="39"/>
+      <c r="AG59" s="33"/>
       <c r="AH59" s="2"/>
-      <c r="AI59" s="20"/>
+      <c r="AI59" s="19"/>
     </row>
     <row r="60" spans="1:35">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D60">
         <v>250</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="H60" s="23"/>
-      <c r="K60" s="20"/>
-      <c r="AA60" s="23"/>
+      <c r="E60" s="19"/>
+      <c r="H60" s="22"/>
+      <c r="K60" s="19"/>
+      <c r="AA60" s="22"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="40">
+      <c r="AD60" s="19">
         <v>600</v>
       </c>
-      <c r="AF60" s="23"/>
+      <c r="AF60" s="22"/>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
-      <c r="AI60" s="40">
+      <c r="AI60" s="19">
         <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="A61" s="19">
+      <c r="A61" s="18">
         <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="23">
         <v>650</v>
       </c>
-      <c r="H61" s="21"/>
-      <c r="K61" s="20"/>
-      <c r="AA61" s="21"/>
+      <c r="H61" s="20"/>
+      <c r="K61" s="19"/>
+      <c r="AA61" s="20"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="20"/>
-      <c r="AF61" s="21"/>
+      <c r="AD61" s="19"/>
+      <c r="AF61" s="20"/>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
-      <c r="AI61" s="20"/>
+      <c r="AI61" s="19"/>
     </row>
     <row r="62" spans="1:35">
-      <c r="A62" s="19"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="1">
         <v>650</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="H62" s="21" t="s">
+      <c r="E62" s="19"/>
+      <c r="H62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K62" s="20"/>
-      <c r="AA62" s="21" t="s">
+      <c r="K62" s="19"/>
+      <c r="AA62" s="20" t="s">
         <v>9</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="20"/>
-      <c r="AF62" s="21" t="s">
+      <c r="AD62" s="19"/>
+      <c r="AF62" s="20" t="s">
         <v>9</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
-      <c r="AI62" s="20"/>
+      <c r="AI62" s="19"/>
     </row>
     <row r="63" spans="1:35">
-      <c r="A63" s="19">
+      <c r="A63" s="18">
         <v>30</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="23">
         <v>1500</v>
       </c>
-      <c r="H63" s="21"/>
-      <c r="K63" s="20"/>
-      <c r="AA63" s="21"/>
+      <c r="H63" s="20"/>
+      <c r="K63" s="19"/>
+      <c r="AA63" s="20"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="40">
+      <c r="AD63" s="19">
         <v>320</v>
       </c>
-      <c r="AF63" s="21"/>
+      <c r="AF63" s="20"/>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
-      <c r="AI63" s="40">
+      <c r="AI63" s="19">
         <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="A64" s="19"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="1">
         <v>1500</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="K64" s="20"/>
-      <c r="AA64" s="21"/>
+      <c r="E64" s="19"/>
+      <c r="H64" s="20"/>
+      <c r="K64" s="19"/>
+      <c r="AA64" s="20"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="20"/>
-      <c r="AF64" s="21"/>
+      <c r="AD64" s="19"/>
+      <c r="AF64" s="20"/>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
-      <c r="AI64" s="20"/>
-    </row>
-    <row r="65" ht="15.75" spans="1:35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43">
+      <c r="AI64" s="19"/>
+    </row>
+    <row r="65" ht="15" spans="1:35">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="34">
         <f>SUM(D44:D64)</f>
         <v>80300</v>
       </c>
-      <c r="E65" s="44">
+      <c r="E65" s="31">
         <f>SUM(E44:E64)</f>
         <v>80300</v>
       </c>
-      <c r="H65" s="21" t="s">
+      <c r="H65" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="K65" s="20"/>
-      <c r="AA65" s="21" t="s">
+      <c r="K65" s="19"/>
+      <c r="AA65" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="20"/>
-      <c r="AF65" s="21" t="s">
+      <c r="AD65" s="19"/>
+      <c r="AF65" s="20" t="s">
         <v>10</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
-      <c r="AI65" s="20"/>
-    </row>
-    <row r="66" ht="15.75" spans="8:35">
-      <c r="H66" s="21"/>
-      <c r="K66" s="20">
+      <c r="AI65" s="19"/>
+    </row>
+    <row r="66" ht="15" spans="8:35">
+      <c r="H66" s="20"/>
+      <c r="K66" s="19">
         <v>60000</v>
       </c>
-      <c r="AA66" s="21"/>
+      <c r="AA66" s="20"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="40">
+      <c r="AD66" s="19">
         <v>60000</v>
       </c>
-      <c r="AF66" s="21"/>
+      <c r="AF66" s="20"/>
       <c r="AG66" s="2"/>
-      <c r="AI66" s="40">
+      <c r="AI66" s="19">
         <v>60330</v>
       </c>
     </row>
     <row r="67" spans="1:35">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46" t="s">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="K67" s="20"/>
-      <c r="AA67" s="21"/>
+      <c r="H67" s="20"/>
+      <c r="K67" s="19"/>
+      <c r="AA67" s="20"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="20"/>
-      <c r="AF67" s="21"/>
+      <c r="AD67" s="19"/>
+      <c r="AF67" s="20"/>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
-      <c r="AI67" s="20"/>
+      <c r="AI67" s="19"/>
     </row>
     <row r="68" spans="1:35">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="19">
         <v>200</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="J68">
         <v>1500</v>
       </c>
-      <c r="K68" s="20"/>
-      <c r="AA68" s="21" t="s">
+      <c r="K68" s="19"/>
+      <c r="AA68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2">
         <v>1500</v>
       </c>
-      <c r="AD68" s="20"/>
-      <c r="AF68" s="21" t="s">
+      <c r="AD68" s="19"/>
+      <c r="AF68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2">
         <v>0</v>
       </c>
-      <c r="AI68" s="20"/>
+      <c r="AI68" s="19"/>
     </row>
     <row r="69" spans="1:35">
-      <c r="A69" s="30"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D69">
         <v>200</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="H69" s="48"/>
-      <c r="K69" s="20"/>
-      <c r="AA69" s="48"/>
+      <c r="E69" s="19"/>
+      <c r="H69" s="35"/>
+      <c r="K69" s="19"/>
+      <c r="AA69" s="35"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="20"/>
-      <c r="AF69" s="48"/>
+      <c r="AD69" s="19"/>
+      <c r="AF69" s="35"/>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
-      <c r="AI69" s="20"/>
+      <c r="AI69" s="19"/>
     </row>
     <row r="70" spans="1:35">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="19">
         <v>400</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="K70" s="20"/>
-      <c r="AA70" s="48"/>
+      <c r="H70" s="35"/>
+      <c r="K70" s="19"/>
+      <c r="AA70" s="35"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="20"/>
-      <c r="AF70" s="48"/>
+      <c r="AD70" s="19"/>
+      <c r="AF70" s="35"/>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
-      <c r="AI70" s="20"/>
+      <c r="AI70" s="19"/>
     </row>
     <row r="71" spans="1:35">
-      <c r="A71" s="30"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D71">
         <v>400</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="H71" s="21" t="s">
+      <c r="E71" s="19"/>
+      <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="20"/>
-      <c r="AA71" s="21" t="s">
+      <c r="K71" s="19"/>
+      <c r="AA71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="20"/>
-      <c r="AF71" s="21" t="s">
+      <c r="AD71" s="19"/>
+      <c r="AF71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
-      <c r="AI71" s="20"/>
+      <c r="AI71" s="19"/>
     </row>
     <row r="72" spans="1:35">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B72" s="6" t="s">
@@ -3724,45 +3786,45 @@
       <c r="D72">
         <v>600</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="H72" s="49"/>
-      <c r="K72" s="20">
+      <c r="E72" s="19"/>
+      <c r="H72" s="36"/>
+      <c r="K72" s="19">
         <v>7900</v>
       </c>
-      <c r="AA72" s="49"/>
+      <c r="AA72" s="36"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="40">
+      <c r="AD72" s="19">
         <v>9550</v>
       </c>
-      <c r="AF72" s="49"/>
+      <c r="AF72" s="36"/>
       <c r="AG72" s="2"/>
-      <c r="AI72" s="40">
+      <c r="AI72" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:35">
-      <c r="A73" s="30"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="6"/>
-      <c r="E73" s="31">
+      <c r="E73" s="19">
         <v>600</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="K73" s="20"/>
-      <c r="AA73" s="21"/>
+      <c r="H73" s="20"/>
+      <c r="K73" s="19"/>
+      <c r="AA73" s="20"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="20"/>
-      <c r="AF73" s="21"/>
+      <c r="AD73" s="19"/>
+      <c r="AF73" s="20"/>
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
-      <c r="AI73" s="20"/>
+      <c r="AI73" s="19"/>
     </row>
     <row r="74" spans="1:35">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B74" t="s">
@@ -3771,50 +3833,50 @@
       <c r="D74">
         <v>320</v>
       </c>
-      <c r="E74" s="31"/>
-      <c r="H74" s="22" t="s">
+      <c r="E74" s="19"/>
+      <c r="H74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="36"/>
-      <c r="K74" s="20"/>
-      <c r="AA74" s="22" t="s">
+      <c r="I74" s="30"/>
+      <c r="K74" s="19"/>
+      <c r="AA74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AB74" s="39"/>
+      <c r="AB74" s="33"/>
       <c r="AC74" s="2">
         <v>600</v>
       </c>
-      <c r="AD74" s="20"/>
-      <c r="AF74" s="22" t="s">
+      <c r="AD74" s="19"/>
+      <c r="AF74" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AG74" s="39"/>
+      <c r="AG74" s="33"/>
       <c r="AH74" s="2">
         <v>0</v>
       </c>
-      <c r="AI74" s="20"/>
+      <c r="AI74" s="19"/>
     </row>
     <row r="75" spans="1:35">
-      <c r="A75" s="30"/>
+      <c r="A75" s="18"/>
       <c r="B75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="19">
         <v>320</v>
       </c>
-      <c r="H75" s="49"/>
-      <c r="K75" s="20"/>
-      <c r="AA75" s="49"/>
+      <c r="H75" s="36"/>
+      <c r="K75" s="19"/>
+      <c r="AA75" s="36"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="20"/>
-      <c r="AF75" s="49"/>
+      <c r="AD75" s="19"/>
+      <c r="AF75" s="36"/>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
-      <c r="AI75" s="20"/>
+      <c r="AI75" s="19"/>
     </row>
     <row r="76" spans="1:35">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -3823,385 +3885,385 @@
       <c r="D76">
         <v>1650</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="H76" s="21"/>
-      <c r="K76" s="20"/>
-      <c r="AA76" s="21"/>
+      <c r="E76" s="19"/>
+      <c r="H76" s="20"/>
+      <c r="K76" s="19"/>
+      <c r="AA76" s="20"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="20"/>
-      <c r="AF76" s="21"/>
+      <c r="AD76" s="19"/>
+      <c r="AF76" s="20"/>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
-      <c r="AI76" s="20"/>
-    </row>
-    <row r="77" ht="15.75" spans="1:35">
-      <c r="A77" s="33"/>
-      <c r="B77" s="50" t="s">
+      <c r="AI76" s="19"/>
+    </row>
+    <row r="77" ht="15" spans="1:35">
+      <c r="A77" s="27"/>
+      <c r="B77" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35">
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29">
         <v>1650</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="20" t="s">
         <v>16</v>
       </c>
       <c r="J77">
         <v>3600</v>
       </c>
-      <c r="K77" s="20"/>
-      <c r="AA77" s="21" t="s">
+      <c r="K77" s="19"/>
+      <c r="AA77" s="20" t="s">
         <v>16</v>
       </c>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2">
         <v>3920</v>
       </c>
-      <c r="AD77" s="20"/>
-      <c r="AF77" s="21" t="s">
+      <c r="AD77" s="19"/>
+      <c r="AF77" s="20" t="s">
         <v>16</v>
       </c>
       <c r="AG77" s="2"/>
       <c r="AH77" s="2">
         <v>0</v>
       </c>
-      <c r="AI77" s="20"/>
+      <c r="AI77" s="19"/>
     </row>
     <row r="78" spans="8:35">
-      <c r="H78" s="49"/>
-      <c r="K78" s="20"/>
-      <c r="AA78" s="49"/>
+      <c r="H78" s="36"/>
+      <c r="K78" s="19"/>
+      <c r="AA78" s="36"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
-      <c r="AD78" s="20"/>
-      <c r="AF78" s="49"/>
+      <c r="AD78" s="19"/>
+      <c r="AF78" s="36"/>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
-      <c r="AI78" s="20"/>
-    </row>
-    <row r="79" spans="8:35">
-      <c r="H79" s="21"/>
-      <c r="K79" s="20"/>
-      <c r="AA79" s="21"/>
+      <c r="AI78" s="19"/>
+    </row>
+    <row r="79" ht="15" spans="8:35">
+      <c r="H79" s="20"/>
+      <c r="K79" s="19"/>
+      <c r="AA79" s="20"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="20"/>
-      <c r="AF79" s="21"/>
+      <c r="AD79" s="19"/>
+      <c r="AF79" s="20"/>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
-      <c r="AI79" s="20"/>
+      <c r="AI79" s="19"/>
     </row>
     <row r="80" spans="1:35">
-      <c r="A80" s="45"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46" t="s">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="21" t="s">
+      <c r="H80" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K80" s="20"/>
-      <c r="AA80" s="21" t="s">
+      <c r="K80" s="19"/>
+      <c r="AA80" s="20" t="s">
         <v>17</v>
       </c>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2">
         <v>200</v>
       </c>
-      <c r="AD80" s="20"/>
-      <c r="AF80" s="21" t="s">
+      <c r="AD80" s="19"/>
+      <c r="AF80" s="20" t="s">
         <v>17</v>
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" s="2">
         <v>0</v>
       </c>
-      <c r="AI80" s="20"/>
+      <c r="AI80" s="19"/>
     </row>
     <row r="81" spans="1:35">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="38" t="s">
         <v>40</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="13">
         <v>9550</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="H81" s="49"/>
-      <c r="K81" s="20"/>
-      <c r="AA81" s="49"/>
+      <c r="E81" s="19"/>
+      <c r="H81" s="36"/>
+      <c r="K81" s="19"/>
+      <c r="AA81" s="36"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="20"/>
-      <c r="AF81" s="49"/>
+      <c r="AD81" s="19"/>
+      <c r="AF81" s="36"/>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
-      <c r="AI81" s="20"/>
+      <c r="AI81" s="19"/>
     </row>
     <row r="82" spans="1:35">
-      <c r="A82" s="51"/>
+      <c r="A82" s="38"/>
       <c r="B82" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="26">
         <v>9550</v>
       </c>
-      <c r="H82" s="21"/>
-      <c r="K82" s="20"/>
-      <c r="AA82" s="21"/>
+      <c r="H82" s="20"/>
+      <c r="K82" s="19"/>
+      <c r="AA82" s="20"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="20"/>
-      <c r="AF82" s="21"/>
+      <c r="AD82" s="19"/>
+      <c r="AF82" s="20"/>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
-      <c r="AI82" s="20"/>
+      <c r="AI82" s="19"/>
     </row>
     <row r="83" spans="1:35">
-      <c r="A83" s="30"/>
-      <c r="E83" s="31"/>
-      <c r="H83" s="21" t="s">
+      <c r="A83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="H83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J83">
         <v>1700</v>
       </c>
-      <c r="K83" s="20"/>
-      <c r="AA83" s="21" t="s">
+      <c r="K83" s="19"/>
+      <c r="AA83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2">
         <v>1700</v>
       </c>
-      <c r="AD83" s="20"/>
-      <c r="AF83" s="21" t="s">
+      <c r="AD83" s="19"/>
+      <c r="AF83" s="20" t="s">
         <v>18</v>
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" s="2">
         <v>0</v>
       </c>
-      <c r="AI83" s="20"/>
+      <c r="AI83" s="19"/>
     </row>
     <row r="84" spans="1:35">
-      <c r="A84" s="51" t="s">
+      <c r="A84" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="E84" s="31">
+      <c r="C84" s="39"/>
+      <c r="E84" s="19">
         <v>600</v>
       </c>
-      <c r="H84" s="49"/>
-      <c r="K84" s="20"/>
-      <c r="AA84" s="49"/>
+      <c r="H84" s="36"/>
+      <c r="K84" s="19"/>
+      <c r="AA84" s="36"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="20"/>
-      <c r="AF84" s="49"/>
+      <c r="AD84" s="19"/>
+      <c r="AF84" s="36"/>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
-      <c r="AI84" s="20"/>
+      <c r="AI84" s="19"/>
     </row>
     <row r="85" spans="1:35">
-      <c r="A85" s="51"/>
+      <c r="A85" s="38"/>
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="26">
         <v>3920</v>
       </c>
-      <c r="H85" s="21"/>
-      <c r="K85" s="20"/>
-      <c r="AA85" s="21"/>
+      <c r="H85" s="20"/>
+      <c r="K85" s="19"/>
+      <c r="AA85" s="20"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="20"/>
-      <c r="AF85" s="21"/>
+      <c r="AD85" s="19"/>
+      <c r="AF85" s="20"/>
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
-      <c r="AI85" s="20"/>
+      <c r="AI85" s="19"/>
     </row>
     <row r="86" spans="1:35">
-      <c r="A86" s="30"/>
+      <c r="A86" s="18"/>
       <c r="B86" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="19">
         <v>200</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K86" s="20"/>
-      <c r="AA86" s="21" t="s">
+      <c r="K86" s="19"/>
+      <c r="AA86" s="20" t="s">
         <v>19</v>
       </c>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2">
         <v>400</v>
       </c>
-      <c r="AD86" s="20"/>
-      <c r="AF86" s="21" t="s">
+      <c r="AD86" s="19"/>
+      <c r="AF86" s="20" t="s">
         <v>19</v>
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2">
         <v>0</v>
       </c>
-      <c r="AI86" s="20"/>
+      <c r="AI86" s="19"/>
     </row>
     <row r="87" spans="1:35">
-      <c r="A87" s="30"/>
+      <c r="A87" s="18"/>
       <c r="B87" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="26">
         <v>1700</v>
       </c>
-      <c r="H87" s="49"/>
-      <c r="K87" s="20"/>
-      <c r="AA87" s="49"/>
+      <c r="H87" s="36"/>
+      <c r="K87" s="19"/>
+      <c r="AA87" s="36"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="20"/>
-      <c r="AF87" s="49"/>
+      <c r="AD87" s="19"/>
+      <c r="AF87" s="36"/>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
-      <c r="AI87" s="20"/>
+      <c r="AI87" s="19"/>
     </row>
     <row r="88" spans="1:35">
-      <c r="A88" s="30"/>
-      <c r="B88" s="52" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C88" s="52"/>
-      <c r="E88" s="31">
+      <c r="C88" s="39"/>
+      <c r="E88" s="19">
         <v>400</v>
       </c>
-      <c r="H88" s="21"/>
-      <c r="K88" s="20"/>
-      <c r="AA88" s="21"/>
+      <c r="H88" s="20"/>
+      <c r="K88" s="19"/>
+      <c r="AA88" s="20"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="20"/>
-      <c r="AF88" s="21"/>
+      <c r="AD88" s="19"/>
+      <c r="AF88" s="20"/>
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
-      <c r="AI88" s="20"/>
+      <c r="AI88" s="19"/>
     </row>
     <row r="89" spans="1:35">
-      <c r="A89" s="30"/>
+      <c r="A89" s="18"/>
       <c r="B89" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E89" s="19">
         <v>250</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J89">
         <v>250</v>
       </c>
-      <c r="K89" s="20"/>
-      <c r="AA89" s="21" t="s">
+      <c r="K89" s="19"/>
+      <c r="AA89" s="20" t="s">
         <v>20</v>
       </c>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2">
         <v>250</v>
       </c>
-      <c r="AD89" s="20"/>
-      <c r="AF89" s="21" t="s">
+      <c r="AD89" s="19"/>
+      <c r="AF89" s="20" t="s">
         <v>20</v>
       </c>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2">
         <v>0</v>
       </c>
-      <c r="AI89" s="20"/>
+      <c r="AI89" s="19"/>
     </row>
     <row r="90" spans="1:35">
-      <c r="A90" s="30"/>
+      <c r="A90" s="18"/>
       <c r="B90" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="31">
+      <c r="E90" s="19">
         <v>650</v>
       </c>
-      <c r="H90" s="49"/>
-      <c r="K90" s="20"/>
-      <c r="AA90" s="49"/>
+      <c r="H90" s="36"/>
+      <c r="K90" s="19"/>
+      <c r="AA90" s="36"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="20"/>
-      <c r="AF90" s="49"/>
+      <c r="AD90" s="19"/>
+      <c r="AF90" s="36"/>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
-      <c r="AI90" s="20"/>
+      <c r="AI90" s="19"/>
     </row>
     <row r="91" spans="1:35">
-      <c r="A91" s="30"/>
+      <c r="A91" s="18"/>
       <c r="B91" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="13">
         <f>SUM(E84:E90)</f>
         <v>7720</v>
       </c>
-      <c r="E91" s="31"/>
-      <c r="H91" s="19"/>
-      <c r="K91" s="20"/>
-      <c r="AA91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="K91" s="19"/>
+      <c r="AA91" s="18"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="20"/>
-      <c r="AF91" s="19"/>
+      <c r="AD91" s="19"/>
+      <c r="AF91" s="18"/>
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
-      <c r="AI91" s="20"/>
+      <c r="AI91" s="19"/>
     </row>
     <row r="92" spans="1:35">
-      <c r="A92" s="30"/>
-      <c r="E92" s="31"/>
-      <c r="H92" s="19" t="s">
+      <c r="A92" s="18"/>
+      <c r="E92" s="19"/>
+      <c r="H92" s="18" t="s">
         <v>21</v>
       </c>
       <c r="J92">
         <v>650</v>
       </c>
-      <c r="K92" s="20"/>
-      <c r="AA92" s="19" t="s">
+      <c r="K92" s="19"/>
+      <c r="AA92" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2">
         <v>650</v>
       </c>
-      <c r="AD92" s="20"/>
-      <c r="AF92" s="19" t="s">
+      <c r="AD92" s="19"/>
+      <c r="AF92" s="18" t="s">
         <v>21</v>
       </c>
       <c r="AG92" s="2"/>
       <c r="AH92" s="2">
         <v>0</v>
       </c>
-      <c r="AI92" s="20"/>
+      <c r="AI92" s="19"/>
     </row>
     <row r="93" spans="1:35">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B93" t="s">
@@ -4211,359 +4273,360 @@
         <f>E82-D91</f>
         <v>1830</v>
       </c>
-      <c r="E93" s="31"/>
-      <c r="H93" s="19"/>
-      <c r="K93" s="20"/>
-      <c r="AA93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="H93" s="18"/>
+      <c r="K93" s="19"/>
+      <c r="AA93" s="18"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="20"/>
-      <c r="AF93" s="19"/>
+      <c r="AD93" s="19"/>
+      <c r="AF93" s="18"/>
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
-      <c r="AI93" s="20"/>
+      <c r="AI93" s="19"/>
     </row>
     <row r="94" spans="1:35">
-      <c r="A94" s="51"/>
+      <c r="A94" s="38"/>
       <c r="B94" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="31">
+      <c r="E94" s="19">
         <v>1830</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="K94" s="20"/>
-      <c r="AA94" s="19"/>
+      <c r="H94" s="18"/>
+      <c r="K94" s="19"/>
+      <c r="AA94" s="18"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="20"/>
-      <c r="AF94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AF94" s="18"/>
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
-      <c r="AI94" s="20"/>
+      <c r="AI94" s="19"/>
     </row>
     <row r="95" spans="1:35">
-      <c r="A95" s="51"/>
-      <c r="E95" s="31"/>
-      <c r="H95" s="19" t="s">
+      <c r="A95" s="38"/>
+      <c r="E95" s="19"/>
+      <c r="H95" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K95" s="20"/>
-      <c r="AA95" s="19" t="s">
+      <c r="K95" s="19"/>
+      <c r="AA95" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
-      <c r="AD95" s="20"/>
-      <c r="AF95" s="19" t="s">
+      <c r="AD95" s="19"/>
+      <c r="AF95" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
-      <c r="AI95" s="20"/>
-    </row>
-    <row r="96" ht="15.75" spans="1:35">
-      <c r="A96" s="30"/>
-      <c r="E96" s="31"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="43">
+      <c r="AI95" s="19"/>
+    </row>
+    <row r="96" ht="15" spans="1:35">
+      <c r="A96" s="18"/>
+      <c r="E96" s="19"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="34">
         <f>SUM(J44:J95)</f>
         <v>67900</v>
       </c>
-      <c r="K96" s="44">
+      <c r="K96" s="31">
         <f>SUM(K45:K95)</f>
         <v>67900</v>
       </c>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="42"/>
-      <c r="AC96" s="66">
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="34">
         <f ca="1">SUM(AC44:AC96)</f>
         <v>70470</v>
       </c>
-      <c r="AD96" s="44">
+      <c r="AD96" s="31">
         <f>SUM(AD45:AD95)</f>
         <v>70470</v>
       </c>
-      <c r="AF96" s="41"/>
-      <c r="AG96" s="42"/>
-      <c r="AH96" s="66">
+      <c r="AF96" s="27"/>
+      <c r="AG96" s="28"/>
+      <c r="AH96" s="34">
         <f>SUM(AH44:AH95)</f>
         <v>61250</v>
       </c>
-      <c r="AI96" s="44">
+      <c r="AI96" s="31">
         <f>SUM(AI45:AI95)</f>
         <v>61250</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="52"/>
-      <c r="E97" s="31">
+      <c r="C97" s="39"/>
+      <c r="E97" s="19">
         <v>1500</v>
       </c>
     </row>
-    <row r="98" ht="15.75" spans="1:5">
-      <c r="A98" s="53"/>
-      <c r="B98" s="34" t="s">
+    <row r="98" ht="15" spans="1:5">
+      <c r="A98" s="40"/>
+      <c r="B98" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="34">
+      <c r="C98" s="28"/>
+      <c r="D98" s="28">
         <v>1500</v>
       </c>
-      <c r="E98" s="35"/>
-    </row>
-    <row r="101" ht="18.75" spans="1:1">
-      <c r="A101" s="54" t="s">
+      <c r="E98" s="29"/>
+    </row>
+    <row r="101" ht="18" spans="1:1">
+      <c r="A101" s="4" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="102" ht="15"/>
     <row r="103" spans="1:14">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="29"/>
-      <c r="G103" s="27" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="G103" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H103" s="28"/>
-      <c r="I103" s="29"/>
-      <c r="K103" s="27" t="s">
+      <c r="H103" s="24"/>
+      <c r="I103" s="25"/>
+      <c r="K103" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L103" s="28"/>
-      <c r="M103" s="28"/>
-      <c r="N103" s="29"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="25"/>
     </row>
     <row r="104" spans="1:14">
-      <c r="A104" s="30" t="s">
+      <c r="A104" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E104" s="31">
+      <c r="E104" s="19">
         <v>77750</v>
       </c>
-      <c r="G104" s="30" t="s">
+      <c r="G104" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I104" s="31">
+      <c r="I104" s="19">
         <v>40000</v>
       </c>
-      <c r="K104" s="30" t="s">
+      <c r="K104" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N104" s="31"/>
+      <c r="N104" s="19"/>
     </row>
     <row r="105" spans="1:14">
-      <c r="A105" s="30"/>
-      <c r="E105" s="31"/>
-      <c r="G105" s="30" t="s">
+      <c r="A105" s="18"/>
+      <c r="E105" s="19"/>
+      <c r="G105" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I105" s="31">
+      <c r="I105" s="19">
         <v>22650</v>
       </c>
-      <c r="K105" s="30" t="s">
+      <c r="K105" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="N105" s="31">
+      <c r="N105" s="19">
         <v>13000</v>
       </c>
     </row>
     <row r="106" spans="1:14">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D106">
         <v>4000</v>
       </c>
-      <c r="E106" s="31"/>
-      <c r="G106" s="30" t="s">
+      <c r="E106" s="19"/>
+      <c r="G106" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I106" s="31">
+      <c r="I106" s="19">
         <v>15000</v>
       </c>
-      <c r="K106" s="30" t="s">
+      <c r="K106" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N106" s="31">
+      <c r="N106" s="19">
         <v>1200</v>
       </c>
     </row>
-    <row r="107" ht="15.75" spans="1:14">
-      <c r="A107" s="30" t="s">
+    <row r="107" ht="15" spans="1:14">
+      <c r="A107" s="18" t="s">
         <v>49</v>
       </c>
       <c r="D107">
         <v>36500</v>
       </c>
-      <c r="E107" s="31"/>
-      <c r="G107" s="33" t="s">
+      <c r="E107" s="19"/>
+      <c r="G107" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H107" s="34"/>
-      <c r="I107" s="35">
+      <c r="H107" s="28"/>
+      <c r="I107" s="29">
         <f>SUM(I104:I105)-I106</f>
         <v>47650</v>
       </c>
-      <c r="K107" s="30" t="s">
+      <c r="K107" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N107" s="31">
+      <c r="N107" s="19">
         <v>1950</v>
       </c>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D108">
         <v>700</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="K108" s="30" t="s">
+      <c r="E108" s="19"/>
+      <c r="K108" s="18" t="s">
         <v>50</v>
       </c>
       <c r="M108">
         <v>48000</v>
       </c>
-      <c r="N108" s="31"/>
+      <c r="N108" s="19"/>
     </row>
     <row r="109" spans="1:14">
-      <c r="A109" s="30" t="s">
+      <c r="A109" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D109">
         <v>9600</v>
       </c>
-      <c r="E109" s="31"/>
-      <c r="K109" s="30" t="s">
+      <c r="E109" s="19"/>
+      <c r="K109" s="18" t="s">
         <v>51</v>
       </c>
       <c r="M109">
         <v>4000</v>
       </c>
-      <c r="N109" s="31">
+      <c r="N109" s="19">
         <v>44000</v>
       </c>
     </row>
     <row r="110" spans="1:14">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D110">
         <v>2600</v>
       </c>
-      <c r="E110" s="31"/>
-      <c r="K110" s="30" t="s">
+      <c r="E110" s="19"/>
+      <c r="K110" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="N110" s="32">
+      <c r="N110" s="26">
         <f>SUM(N105:N109)</f>
         <v>60150</v>
       </c>
     </row>
     <row r="111" spans="1:14">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D111">
         <v>1700</v>
       </c>
-      <c r="E111" s="32">
+      <c r="E111" s="26">
         <f>SUM(D106:D111)</f>
         <v>55100</v>
       </c>
-      <c r="K111" s="30"/>
-      <c r="N111" s="31"/>
-    </row>
-    <row r="112" ht="15.75" spans="1:14">
-      <c r="A112" s="33" t="s">
+      <c r="K111" s="18"/>
+      <c r="N111" s="19"/>
+    </row>
+    <row r="112" ht="15" spans="1:14">
+      <c r="A112" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="34"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="34"/>
-      <c r="E112" s="35">
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29">
         <f>E104-E111</f>
         <v>22650</v>
       </c>
-      <c r="K112" s="30" t="s">
+      <c r="K112" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N112" s="31"/>
+      <c r="N112" s="19"/>
     </row>
     <row r="113" spans="11:14">
-      <c r="K113" s="30" t="s">
+      <c r="K113" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N113" s="31">
+      <c r="N113" s="19">
         <v>12000</v>
       </c>
     </row>
     <row r="114" spans="11:14">
-      <c r="K114" s="63" t="s">
+      <c r="K114" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N114" s="31">
+      <c r="N114" s="19">
         <v>500</v>
       </c>
     </row>
     <row r="115" spans="11:14">
-      <c r="K115" s="64" t="s">
+      <c r="K115" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N115" s="31">
+      <c r="N115" s="19">
         <v>47650</v>
       </c>
     </row>
-    <row r="116" ht="15.75" spans="11:14">
-      <c r="K116" s="33" t="s">
+    <row r="116" ht="15" spans="11:14">
+      <c r="K116" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
-      <c r="N116" s="37">
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="31">
         <f>SUM(N113:N115)</f>
         <v>60150</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="45"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="55" t="s">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55" t="s">
+      <c r="D117" s="41"/>
+      <c r="E117" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55" t="s">
+      <c r="F117" s="41"/>
+      <c r="G117" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="H117" s="56"/>
+      <c r="H117" s="42"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="30"/>
-      <c r="C118" s="57"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="57"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="57"/>
-      <c r="H118" s="58"/>
+      <c r="A118" s="18"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="44"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="30"/>
+      <c r="A119" s="18"/>
       <c r="C119" t="s">
         <v>12</v>
       </c>
@@ -4579,332 +4642,332 @@
       <c r="G119" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="31" t="s">
+      <c r="H119" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="59" t="s">
+      <c r="A120" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B120" s="60"/>
-      <c r="C120" s="61">
+      <c r="B120" s="6"/>
+      <c r="C120" s="46">
         <v>13000</v>
       </c>
-      <c r="D120" s="62"/>
-      <c r="F120" s="62"/>
+      <c r="D120" s="47"/>
+      <c r="F120" s="47"/>
       <c r="G120">
         <v>13000</v>
       </c>
-      <c r="H120" s="31"/>
+      <c r="H120" s="19"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B121" s="60"/>
-      <c r="C121" s="61">
+      <c r="B121" s="6"/>
+      <c r="C121" s="46">
         <v>1200</v>
       </c>
-      <c r="D121" s="62"/>
-      <c r="F121" s="62"/>
+      <c r="D121" s="47"/>
+      <c r="F121" s="47"/>
       <c r="G121">
         <v>1200</v>
       </c>
-      <c r="H121" s="31"/>
+      <c r="H121" s="19"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="59" t="s">
+      <c r="A122" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B122" s="60"/>
-      <c r="C122" s="61">
+      <c r="B122" s="6"/>
+      <c r="C122" s="46">
         <v>1950</v>
       </c>
-      <c r="D122" s="62"/>
-      <c r="F122" s="62"/>
+      <c r="D122" s="47"/>
+      <c r="F122" s="47"/>
       <c r="G122">
         <v>1950</v>
       </c>
-      <c r="H122" s="31"/>
+      <c r="H122" s="19"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="59" t="s">
+      <c r="A123" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="60"/>
-      <c r="C123" s="61">
+      <c r="B123" s="6"/>
+      <c r="C123" s="46">
         <v>48000</v>
       </c>
-      <c r="D123" s="62"/>
-      <c r="F123" s="62"/>
+      <c r="D123" s="47"/>
+      <c r="F123" s="47"/>
       <c r="G123">
         <v>48000</v>
       </c>
-      <c r="H123" s="31"/>
+      <c r="H123" s="19"/>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="59" t="s">
+      <c r="A124" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="60"/>
-      <c r="C124" s="61"/>
-      <c r="D124" s="62">
+      <c r="B124" s="6"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="47">
         <v>4000</v>
       </c>
-      <c r="F124" s="62"/>
-      <c r="H124" s="31">
+      <c r="F124" s="47"/>
+      <c r="H124" s="19">
         <v>4000</v>
       </c>
-      <c r="L124" s="65"/>
+      <c r="L124" s="39"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="59" t="s">
+      <c r="A125" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="B125" s="60"/>
-      <c r="C125" s="61"/>
-      <c r="D125" s="62">
+      <c r="B125" s="6"/>
+      <c r="C125" s="46"/>
+      <c r="D125" s="47">
         <v>12000</v>
       </c>
-      <c r="F125" s="62"/>
-      <c r="H125" s="31">
+      <c r="F125" s="47"/>
+      <c r="H125" s="19">
         <v>12000</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="59" t="s">
+      <c r="A126" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="61"/>
-      <c r="D126" s="62">
+      <c r="B126" s="6"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="47">
         <v>500</v>
       </c>
-      <c r="F126" s="62"/>
-      <c r="H126" s="31">
+      <c r="F126" s="47"/>
+      <c r="H126" s="19">
         <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="60"/>
-      <c r="C127" s="61"/>
-      <c r="D127" s="62">
+      <c r="B127" s="6"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="47">
         <v>40000</v>
       </c>
       <c r="E127">
         <v>15000</v>
       </c>
-      <c r="F127" s="62">
+      <c r="F127" s="47">
         <f>77750-55100</f>
         <v>22650</v>
       </c>
-      <c r="H127" s="31">
+      <c r="H127" s="19">
         <f>D127+F127-E127</f>
         <v>47650</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="59" t="s">
+      <c r="A128" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B128" s="60"/>
-      <c r="C128" s="61">
+      <c r="B128" s="6"/>
+      <c r="C128" s="46">
         <v>15000</v>
       </c>
-      <c r="D128" s="62"/>
-      <c r="F128" s="62">
+      <c r="D128" s="47"/>
+      <c r="F128" s="47">
         <v>15000</v>
       </c>
-      <c r="H128" s="31">
+      <c r="H128" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="59" t="s">
+      <c r="A129" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="60"/>
-      <c r="C129" s="61"/>
-      <c r="D129" s="62">
+      <c r="B129" s="6"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="47">
         <v>77750</v>
       </c>
       <c r="E129">
         <v>77750</v>
       </c>
-      <c r="F129" s="62"/>
-      <c r="H129" s="31">
+      <c r="F129" s="47"/>
+      <c r="H129" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="60"/>
-      <c r="C130" s="61">
+      <c r="B130" s="6"/>
+      <c r="C130" s="46">
         <v>4000</v>
       </c>
-      <c r="D130" s="62"/>
-      <c r="F130" s="62">
+      <c r="D130" s="47"/>
+      <c r="F130" s="47">
         <v>4000</v>
       </c>
-      <c r="H130" s="31">
+      <c r="H130" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B131" s="60"/>
-      <c r="C131" s="61">
+      <c r="B131" s="6"/>
+      <c r="C131" s="46">
         <v>36500</v>
       </c>
-      <c r="D131" s="62"/>
-      <c r="F131" s="62">
+      <c r="D131" s="47"/>
+      <c r="F131" s="47">
         <v>36500</v>
       </c>
-      <c r="H131" s="31">
-        <v>0</v>
-      </c>
-      <c r="J131" s="14"/>
+      <c r="H131" s="19">
+        <v>0</v>
+      </c>
+      <c r="J131" s="13"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B132" s="60"/>
-      <c r="C132" s="61">
+      <c r="B132" s="6"/>
+      <c r="C132" s="46">
         <v>700</v>
       </c>
-      <c r="D132" s="62"/>
-      <c r="F132" s="62">
+      <c r="D132" s="47"/>
+      <c r="F132" s="47">
         <v>700</v>
       </c>
-      <c r="H132" s="31">
+      <c r="H132" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="59" t="s">
+      <c r="A133" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B133" s="60"/>
-      <c r="C133" s="61">
+      <c r="B133" s="6"/>
+      <c r="C133" s="46">
         <v>9600</v>
       </c>
-      <c r="D133" s="62"/>
-      <c r="F133" s="62">
+      <c r="D133" s="47"/>
+      <c r="F133" s="47">
         <v>9600</v>
       </c>
-      <c r="H133" s="31">
+      <c r="H133" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="59" t="s">
+      <c r="A134" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B134" s="60"/>
-      <c r="C134" s="61">
+      <c r="B134" s="6"/>
+      <c r="C134" s="46">
         <v>2600</v>
       </c>
-      <c r="D134" s="62"/>
-      <c r="F134" s="62">
+      <c r="D134" s="47"/>
+      <c r="F134" s="47">
         <v>2600</v>
       </c>
-      <c r="H134" s="31">
+      <c r="H134" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B135" s="60"/>
-      <c r="C135" s="67">
+      <c r="B135" s="6"/>
+      <c r="C135" s="46">
         <v>1700</v>
       </c>
-      <c r="D135" s="68"/>
-      <c r="E135" s="69"/>
-      <c r="F135" s="68">
+      <c r="D135" s="47"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="47">
         <v>1700</v>
       </c>
-      <c r="G135" s="69"/>
-      <c r="H135" s="70">
+      <c r="G135" s="2"/>
+      <c r="H135" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="71" t="s">
+      <c r="A136" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B136" s="72"/>
-      <c r="C136" s="73"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="13">
+      <c r="B136" s="49"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="12">
         <f>SUM(F130:F135)+22650</f>
         <v>77750</v>
       </c>
-      <c r="F136" s="74">
+      <c r="F136" s="50">
         <v>77750</v>
       </c>
-      <c r="G136" s="13"/>
-      <c r="H136" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" spans="1:8">
-      <c r="A137" s="33" t="s">
+      <c r="G136" s="12"/>
+      <c r="H136" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:8">
+      <c r="A137" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="76">
+      <c r="B137" s="28"/>
+      <c r="C137" s="52">
         <f>SUM(C120:C135)</f>
         <v>134250</v>
       </c>
-      <c r="D137" s="77">
+      <c r="D137" s="53">
         <f>SUM(D120:D135)</f>
         <v>134250</v>
       </c>
-      <c r="E137" s="66"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="66">
+      <c r="E137" s="34"/>
+      <c r="F137" s="53"/>
+      <c r="G137" s="34">
         <f>SUM(G120:G136)</f>
         <v>64150</v>
       </c>
-      <c r="H137" s="37">
+      <c r="H137" s="31">
         <f>SUM(H120:H136)</f>
         <v>64150</v>
       </c>
     </row>
-    <row r="140" ht="19.5" spans="1:1">
+    <row r="140" ht="18.75" spans="1:1">
       <c r="A140" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:16">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="29"/>
-      <c r="F141" s="78" t="s">
+      <c r="B141" s="24"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="25"/>
+      <c r="F141" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G141" s="79"/>
-      <c r="H141" s="80"/>
-      <c r="J141" s="27" t="s">
+      <c r="G141" s="24"/>
+      <c r="H141" s="25"/>
+      <c r="J141" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
-      <c r="M141" s="29"/>
+      <c r="K141" s="24"/>
+      <c r="L141" s="24"/>
+      <c r="M141" s="25"/>
       <c r="O141" t="s">
         <v>70</v>
       </c>
@@ -4914,356 +4977,1291 @@
       </c>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="30" t="s">
+      <c r="A142" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C142">
         <v>96000</v>
       </c>
-      <c r="D142" s="31"/>
-      <c r="F142" s="63" t="s">
+      <c r="D142" s="19"/>
+      <c r="F142" s="18" t="s">
         <v>72</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="40">
+      <c r="H142" s="19">
         <v>82700</v>
       </c>
-      <c r="J142" s="30" t="s">
+      <c r="J142" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M142" s="31"/>
-    </row>
-    <row r="143" ht="15.75" spans="1:16">
-      <c r="A143" s="30" t="s">
+      <c r="M142" s="19"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C143">
         <v>13000</v>
       </c>
-      <c r="D143" s="31"/>
-      <c r="F143" s="64" t="s">
+      <c r="D143" s="19"/>
+      <c r="F143" s="18" t="s">
         <v>30</v>
       </c>
       <c r="G143" s="2"/>
-      <c r="H143" s="40">
+      <c r="H143" s="19">
         <v>13100</v>
       </c>
-      <c r="J143" s="30" t="s">
+      <c r="J143" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M143" s="31">
+      <c r="M143" s="19">
         <v>4000</v>
       </c>
       <c r="O143" t="s">
         <v>74</v>
       </c>
-      <c r="P143" s="14">
+      <c r="P143" s="13">
         <f>SUM(M155:M161)/M152</f>
         <v>0.529477821448624</v>
       </c>
     </row>
     <row r="144" spans="1:13">
-      <c r="A144" s="30" t="s">
+      <c r="A144" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C144">
         <v>1900</v>
       </c>
-      <c r="D144" s="31"/>
-      <c r="F144" s="63" t="s">
+      <c r="D144" s="19"/>
+      <c r="F144" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="40">
+      <c r="H144" s="19">
         <v>12000</v>
       </c>
-      <c r="J144" s="30" t="s">
+      <c r="J144" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="M144" s="31">
+      <c r="M144" s="19">
         <v>22000</v>
       </c>
     </row>
-    <row r="145" ht="15.75" spans="1:13">
-      <c r="A145" s="30" t="s">
+    <row r="145" ht="15" spans="1:16">
+      <c r="A145" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C145">
         <v>1000</v>
       </c>
-      <c r="D145" s="31"/>
-      <c r="F145" s="81" t="s">
+      <c r="D145" s="19"/>
+      <c r="F145" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G145" s="82"/>
-      <c r="H145" s="83">
+      <c r="G145" s="28"/>
+      <c r="H145" s="29">
         <f>H142+H143-H144</f>
         <v>83800</v>
       </c>
-      <c r="J145" s="30" t="s">
+      <c r="J145" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="M145" s="31">
+      <c r="M145" s="19">
         <v>7100</v>
       </c>
+      <c r="O145" t="s">
+        <v>80</v>
+      </c>
+      <c r="P145">
+        <f>13100/111900</f>
+        <v>0.117068811438785</v>
+      </c>
     </row>
     <row r="146" spans="1:13">
-      <c r="A146" s="30"/>
-      <c r="D146" s="32">
+      <c r="A146" s="18"/>
+      <c r="D146" s="26">
         <f>SUM(C142:C145)</f>
         <v>111900</v>
       </c>
-      <c r="J146" s="30" t="s">
+      <c r="J146" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M146" s="31">
+      <c r="M146" s="19">
         <v>6000</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="30" t="s">
-        <v>80</v>
+    <row r="147" spans="1:16">
+      <c r="A147" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="C147">
         <v>10000</v>
       </c>
-      <c r="D147" s="31"/>
-      <c r="J147" s="30" t="s">
+      <c r="D147" s="19"/>
+      <c r="J147" s="18" t="s">
         <v>50</v>
       </c>
       <c r="L147">
         <v>39000</v>
       </c>
-      <c r="M147" s="31"/>
+      <c r="M147" s="19"/>
+      <c r="O147" t="s">
+        <v>82</v>
+      </c>
+      <c r="P147" s="13">
+        <f>SUM(M143:M146)/SUM(M155:M160)</f>
+        <v>1.38162544169611</v>
+      </c>
     </row>
     <row r="148" spans="1:13">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C148">
         <v>5000</v>
       </c>
-      <c r="D148" s="31"/>
-      <c r="J148" s="30" t="s">
+      <c r="D148" s="19"/>
+      <c r="J148" s="18" t="s">
         <v>59</v>
       </c>
       <c r="L148">
         <v>20000</v>
       </c>
-      <c r="M148" s="31">
+      <c r="M148" s="19">
         <f>L147-L148</f>
         <v>19000</v>
       </c>
     </row>
     <row r="149" spans="1:13">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C149">
         <v>31000</v>
       </c>
-      <c r="D149" s="31"/>
-      <c r="J149" s="30" t="s">
-        <v>81</v>
+      <c r="D149" s="19"/>
+      <c r="J149" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="L149">
         <v>130000</v>
       </c>
-      <c r="M149" s="31"/>
+      <c r="M149" s="19"/>
     </row>
     <row r="150" spans="1:13">
-      <c r="A150" s="30" t="s">
-        <v>82</v>
+      <c r="A150" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="C150">
         <v>4100</v>
       </c>
-      <c r="D150" s="31"/>
-      <c r="J150" s="30" t="s">
-        <v>83</v>
+      <c r="D150" s="19"/>
+      <c r="J150" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="L150">
         <v>55000</v>
       </c>
-      <c r="M150" s="31">
+      <c r="M150" s="19">
         <f>L149-L150</f>
         <v>75000</v>
       </c>
     </row>
     <row r="151" spans="1:13">
-      <c r="A151" s="30" t="s">
+      <c r="A151" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C151">
         <v>9000</v>
       </c>
-      <c r="D151" s="31"/>
-      <c r="J151" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M151" s="31">
+      <c r="D151" s="19"/>
+      <c r="J151" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M151" s="19">
         <v>45000</v>
       </c>
     </row>
     <row r="152" spans="1:13">
-      <c r="A152" s="30" t="s">
+      <c r="A152" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C152">
         <v>12400</v>
       </c>
-      <c r="D152" s="31"/>
-      <c r="J152" s="30" t="s">
+      <c r="D152" s="19"/>
+      <c r="J152" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M152" s="32">
+      <c r="M152" s="26">
         <f>SUM(M143:M151)</f>
         <v>178100</v>
       </c>
     </row>
     <row r="153" spans="1:13">
-      <c r="A153" s="30" t="s">
-        <v>85</v>
+      <c r="A153" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C153">
         <v>6400</v>
       </c>
-      <c r="D153" s="31"/>
-      <c r="J153" s="30"/>
-      <c r="M153" s="31"/>
+      <c r="D153" s="19"/>
+      <c r="J153" s="18"/>
+      <c r="M153" s="19"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="30" t="s">
-        <v>86</v>
+      <c r="A154" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C154">
         <v>3200</v>
       </c>
-      <c r="D154" s="31"/>
-      <c r="J154" s="30" t="s">
+      <c r="D154" s="19"/>
+      <c r="J154" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="M154" s="31"/>
+      <c r="M154" s="19"/>
     </row>
     <row r="155" spans="1:13">
-      <c r="A155" s="30" t="s">
-        <v>87</v>
+      <c r="A155" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C155">
         <v>4000</v>
       </c>
-      <c r="D155" s="31"/>
-      <c r="J155" s="30" t="s">
+      <c r="D155" s="19"/>
+      <c r="J155" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M155" s="31">
+      <c r="M155" s="19">
         <v>15500</v>
       </c>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="30" t="s">
-        <v>88</v>
+      <c r="A156" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="C156">
         <v>7900</v>
       </c>
-      <c r="D156" s="31"/>
-      <c r="J156" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="M156" s="31">
+      <c r="D156" s="19"/>
+      <c r="J156" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M156" s="19">
         <v>1500</v>
       </c>
     </row>
     <row r="157" spans="1:13">
-      <c r="A157" s="30" t="s">
-        <v>90</v>
+      <c r="A157" s="18" t="s">
+        <v>92</v>
       </c>
       <c r="C157">
         <v>2200</v>
       </c>
-      <c r="D157" s="31"/>
-      <c r="J157" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="M157" s="31">
+      <c r="D157" s="19"/>
+      <c r="J157" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M157" s="19">
         <v>2500</v>
       </c>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C158">
         <v>3600</v>
       </c>
-      <c r="D158" s="31"/>
-      <c r="J158" s="30" t="s">
+      <c r="D158" s="19"/>
+      <c r="J158" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="M158" s="31">
+      <c r="M158" s="19">
         <v>1500</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="30"/>
-      <c r="D159" s="32">
+    <row r="159" spans="1:15">
+      <c r="A159" s="18"/>
+      <c r="D159" s="26">
         <f>SUM(C147:C158)</f>
         <v>98800</v>
       </c>
-      <c r="J159" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="M159" s="31">
+      <c r="J159" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M159" s="19">
         <v>800</v>
       </c>
-    </row>
-    <row r="160" ht="15.75" spans="1:13">
-      <c r="A160" s="33" t="s">
+      <c r="O159" s="13"/>
+    </row>
+    <row r="160" ht="15" spans="1:13">
+      <c r="A160" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="35">
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+      <c r="D160" s="29">
         <f>D146-D159</f>
         <v>13100</v>
       </c>
-      <c r="J160" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="M160" s="31">
+      <c r="J160" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M160" s="19">
         <v>6500</v>
       </c>
     </row>
     <row r="161" spans="10:13">
-      <c r="J161" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M161" s="31">
+      <c r="J161" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M161" s="19">
         <v>66000</v>
       </c>
     </row>
     <row r="162" spans="10:13">
-      <c r="J162" s="30" t="s">
+      <c r="J162" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M162" s="31">
+      <c r="M162" s="19">
         <v>83800</v>
       </c>
     </row>
-    <row r="163" ht="15.75" spans="10:13">
-      <c r="J163" s="33" t="s">
+    <row r="163" ht="15" spans="10:13">
+      <c r="J163" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="K163" s="34"/>
-      <c r="L163" s="34"/>
-      <c r="M163" s="37">
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="31">
         <f>SUM(M155:M162)</f>
         <v>178100</v>
       </c>
     </row>
+    <row r="166" ht="18.75" spans="1:1">
+      <c r="A166" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="54"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="56"/>
+      <c r="E167" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F167" s="57"/>
+      <c r="G167" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="56"/>
+      <c r="I167" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J167" s="56"/>
+      <c r="K167" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="L167" s="70"/>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="58"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="59"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="60"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="59"/>
+      <c r="I168" s="59"/>
+      <c r="J168" s="59"/>
+      <c r="K168" s="59"/>
+      <c r="L168" s="71"/>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="58"/>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>12</v>
+      </c>
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" t="s">
+        <v>12</v>
+      </c>
+      <c r="L169" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>17500</v>
+      </c>
+      <c r="D170" s="61"/>
+      <c r="F170" s="61"/>
+      <c r="G170">
+        <v>17500</v>
+      </c>
+      <c r="H170" s="61"/>
+      <c r="J170" s="61"/>
+      <c r="K170">
+        <v>17500</v>
+      </c>
+      <c r="L170" s="72"/>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171">
+        <v>8900</v>
+      </c>
+      <c r="D171" s="61"/>
+      <c r="F171" s="61">
+        <v>5700</v>
+      </c>
+      <c r="G171">
+        <v>3200</v>
+      </c>
+      <c r="H171" s="61"/>
+      <c r="J171" s="61"/>
+      <c r="K171">
+        <v>3200</v>
+      </c>
+      <c r="L171" s="72"/>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172">
+        <v>6200</v>
+      </c>
+      <c r="D172" s="61"/>
+      <c r="F172" s="61">
+        <v>3900</v>
+      </c>
+      <c r="G172">
+        <v>2300</v>
+      </c>
+      <c r="H172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172">
+        <v>2300</v>
+      </c>
+      <c r="L172" s="72"/>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C173">
+        <v>131000</v>
+      </c>
+      <c r="D173" s="61"/>
+      <c r="F173" s="61"/>
+      <c r="G173">
+        <v>131000</v>
+      </c>
+      <c r="H173" s="61"/>
+      <c r="J173" s="61"/>
+      <c r="K173">
+        <v>131000</v>
+      </c>
+      <c r="L173" s="72"/>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="63"/>
+      <c r="D174" s="61">
+        <v>25250</v>
+      </c>
+      <c r="F174" s="61">
+        <v>8500</v>
+      </c>
+      <c r="H174" s="61">
+        <f>D174+F174</f>
+        <v>33750</v>
+      </c>
+      <c r="J174" s="61"/>
+      <c r="L174" s="72">
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D175" s="61">
+        <v>5800</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175" s="61"/>
+      <c r="H175" s="61">
+        <v>5800</v>
+      </c>
+      <c r="J175" s="61"/>
+      <c r="L175" s="72">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D176" s="61">
+        <v>0</v>
+      </c>
+      <c r="F176" s="61">
+        <v>240</v>
+      </c>
+      <c r="H176" s="61">
+        <v>240</v>
+      </c>
+      <c r="J176" s="61"/>
+      <c r="L176" s="72">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D177" s="61">
+        <v>0</v>
+      </c>
+      <c r="F177" s="61">
+        <v>200</v>
+      </c>
+      <c r="H177" s="61">
+        <v>200</v>
+      </c>
+      <c r="J177" s="61"/>
+      <c r="L177" s="72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D178" s="61">
+        <v>0</v>
+      </c>
+      <c r="F178" s="61">
+        <v>1600</v>
+      </c>
+      <c r="H178" s="61">
+        <v>1600</v>
+      </c>
+      <c r="J178" s="61"/>
+      <c r="L178" s="72">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D179" s="61">
+        <v>0</v>
+      </c>
+      <c r="F179" s="61">
+        <v>550</v>
+      </c>
+      <c r="H179" s="61">
+        <v>550</v>
+      </c>
+      <c r="J179" s="61"/>
+      <c r="L179" s="72">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="D180" s="61">
+        <v>0</v>
+      </c>
+      <c r="F180" s="61">
+        <v>900</v>
+      </c>
+      <c r="H180" s="61">
+        <v>900</v>
+      </c>
+      <c r="J180" s="61"/>
+      <c r="L180" s="72">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="58"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="64"/>
+      <c r="F181" s="65">
+        <v>5000</v>
+      </c>
+      <c r="H181" s="61">
+        <v>5000</v>
+      </c>
+      <c r="I181"/>
+      <c r="J181" s="61"/>
+      <c r="L181" s="72">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182" s="61">
+        <v>24000</v>
+      </c>
+      <c r="E182" s="66">
+        <v>5000</v>
+      </c>
+      <c r="F182" s="61"/>
+      <c r="H182" s="61">
+        <f>D182-E182</f>
+        <v>19000</v>
+      </c>
+      <c r="J182" s="61"/>
+      <c r="L182" s="72">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D183" s="61">
+        <v>77660</v>
+      </c>
+      <c r="F183" s="61"/>
+      <c r="H183" s="61">
+        <v>77660</v>
+      </c>
+      <c r="I183">
+        <v>30000</v>
+      </c>
+      <c r="J183" s="61">
+        <v>39300</v>
+      </c>
+      <c r="L183" s="72">
+        <f>H183+J183-I183</f>
+        <v>86960</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184">
+        <v>30000</v>
+      </c>
+      <c r="D184" s="61"/>
+      <c r="F184" s="61"/>
+      <c r="G184">
+        <v>30000</v>
+      </c>
+      <c r="H184" s="61"/>
+      <c r="J184" s="61">
+        <v>30000</v>
+      </c>
+      <c r="L184" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B185" s="63"/>
+      <c r="D185" s="61">
+        <v>134000</v>
+      </c>
+      <c r="F185" s="61"/>
+      <c r="H185" s="61">
+        <v>134000</v>
+      </c>
+      <c r="I185">
+        <v>134000</v>
+      </c>
+      <c r="J185" s="61"/>
+      <c r="L185" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" s="61"/>
+      <c r="E186">
+        <v>8500</v>
+      </c>
+      <c r="F186" s="61"/>
+      <c r="G186">
+        <v>8500</v>
+      </c>
+      <c r="H186" s="61"/>
+      <c r="J186" s="61">
+        <v>8500</v>
+      </c>
+      <c r="L186" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C187">
+        <v>45860</v>
+      </c>
+      <c r="D187" s="61"/>
+      <c r="E187">
+        <v>1600</v>
+      </c>
+      <c r="F187" s="61"/>
+      <c r="G187">
+        <f>C187+E187</f>
+        <v>47460</v>
+      </c>
+      <c r="H187" s="61"/>
+      <c r="J187" s="61">
+        <v>47460</v>
+      </c>
+      <c r="L187" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188">
+        <v>2640</v>
+      </c>
+      <c r="D188" s="61"/>
+      <c r="E188">
+        <v>240</v>
+      </c>
+      <c r="F188" s="61"/>
+      <c r="G188">
+        <f t="shared" ref="G188:G194" si="2">C188+E188</f>
+        <v>2880</v>
+      </c>
+      <c r="H188" s="61"/>
+      <c r="J188" s="61">
+        <v>2880</v>
+      </c>
+      <c r="L188" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" s="61"/>
+      <c r="E189">
+        <v>3900</v>
+      </c>
+      <c r="F189" s="61"/>
+      <c r="G189">
+        <f t="shared" si="2"/>
+        <v>3900</v>
+      </c>
+      <c r="H189" s="67"/>
+      <c r="J189" s="61">
+        <v>3900</v>
+      </c>
+      <c r="L189" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190">
+        <v>13200</v>
+      </c>
+      <c r="D190" s="61"/>
+      <c r="E190">
+        <v>200</v>
+      </c>
+      <c r="F190" s="61"/>
+      <c r="G190">
+        <f t="shared" si="2"/>
+        <v>13400</v>
+      </c>
+      <c r="H190" s="61"/>
+      <c r="J190" s="61">
+        <v>13400</v>
+      </c>
+      <c r="L190" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191" s="68"/>
+      <c r="E191" s="69">
+        <v>5700</v>
+      </c>
+      <c r="F191" s="61"/>
+      <c r="G191">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="H191" s="61"/>
+      <c r="J191" s="61">
+        <v>5700</v>
+      </c>
+      <c r="L191" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C192">
+        <v>4600</v>
+      </c>
+      <c r="D192" s="61"/>
+      <c r="E192">
+        <v>900</v>
+      </c>
+      <c r="F192" s="61"/>
+      <c r="G192">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+      <c r="H192" s="61"/>
+      <c r="J192" s="61">
+        <v>5500</v>
+      </c>
+      <c r="L192" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C193">
+        <v>2810</v>
+      </c>
+      <c r="D193" s="61"/>
+      <c r="F193" s="61"/>
+      <c r="G193">
+        <f t="shared" si="2"/>
+        <v>2810</v>
+      </c>
+      <c r="H193" s="61"/>
+      <c r="J193" s="61">
+        <v>2810</v>
+      </c>
+      <c r="L193" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C194">
+        <v>4000</v>
+      </c>
+      <c r="D194" s="61"/>
+      <c r="E194">
+        <v>550</v>
+      </c>
+      <c r="F194" s="61"/>
+      <c r="G194">
+        <f t="shared" si="2"/>
+        <v>4550</v>
+      </c>
+      <c r="H194" s="61"/>
+      <c r="J194" s="61">
+        <v>4550</v>
+      </c>
+      <c r="L194" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="74"/>
+      <c r="C195" s="75"/>
+      <c r="D195" s="76"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="77"/>
+      <c r="G195" s="75"/>
+      <c r="H195" s="76"/>
+      <c r="I195" s="75">
+        <f>SUM(J186:J194)+39300</f>
+        <v>134000</v>
+      </c>
+      <c r="J195" s="77">
+        <v>134000</v>
+      </c>
+      <c r="K195" s="74"/>
+      <c r="L195" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="15" spans="1:12">
+      <c r="A196" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B196" s="79"/>
+      <c r="C196" s="80">
+        <f>SUM(C170:C194)</f>
+        <v>266710</v>
+      </c>
+      <c r="D196" s="81">
+        <f>SUM(D170:D194)</f>
+        <v>266710</v>
+      </c>
+      <c r="E196" s="79"/>
+      <c r="F196" s="82"/>
+      <c r="G196" s="80">
+        <f>SUM(G170:G194)</f>
+        <v>278700</v>
+      </c>
+      <c r="H196" s="81">
+        <f>SUM(H170:H194)</f>
+        <v>278700</v>
+      </c>
+      <c r="I196" s="79"/>
+      <c r="J196" s="82"/>
+      <c r="K196" s="80">
+        <f>SUM(K170:K173)</f>
+        <v>154000</v>
+      </c>
+      <c r="L196" s="88">
+        <f>SUM(L174:L183)</f>
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="57"/>
+      <c r="C199" s="84"/>
+      <c r="E199" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F199" s="57"/>
+      <c r="G199" s="84"/>
+      <c r="I199" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="J199" s="57"/>
+      <c r="K199" s="57"/>
+      <c r="L199" s="84"/>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C200" s="85">
+        <v>134000</v>
+      </c>
+      <c r="E200" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="G200" s="72">
+        <v>77660</v>
+      </c>
+      <c r="I200" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="L200" s="72"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="58"/>
+      <c r="C201" s="72"/>
+      <c r="E201" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="G201" s="72">
+        <v>39300</v>
+      </c>
+      <c r="I201" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="L201" s="72">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C202" s="72">
+        <v>8500</v>
+      </c>
+      <c r="E202" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G202" s="72">
+        <v>30000</v>
+      </c>
+      <c r="I202" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="L202" s="72">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="203" ht="15" spans="1:12">
+      <c r="A203" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203" s="72">
+        <v>47460</v>
+      </c>
+      <c r="E203" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F203" s="79"/>
+      <c r="G203" s="86">
+        <f>G200+G201-G202</f>
+        <v>86960</v>
+      </c>
+      <c r="I203" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="L203" s="72">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C204" s="72">
+        <v>2880</v>
+      </c>
+      <c r="I204" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K204">
+        <v>131000</v>
+      </c>
+      <c r="L204" s="72"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C205" s="72">
+        <v>3900</v>
+      </c>
+      <c r="I205" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J205" s="63"/>
+      <c r="K205">
+        <v>33750</v>
+      </c>
+      <c r="L205" s="72">
+        <f>K204-K205</f>
+        <v>97250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" s="72">
+        <v>13400</v>
+      </c>
+      <c r="I206" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="L206" s="89">
+        <f>SUM(L201:L205)</f>
+        <v>120250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" s="72">
+        <v>5700</v>
+      </c>
+      <c r="I207" s="58"/>
+      <c r="L207" s="72"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="72">
+        <v>5500</v>
+      </c>
+      <c r="I208" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L208" s="72"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" s="72">
+        <v>2810</v>
+      </c>
+      <c r="I209" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="L209" s="72">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="72">
+        <v>4550</v>
+      </c>
+      <c r="I210" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L210" s="89">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="211" ht="15" spans="1:12">
+      <c r="A211" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="79"/>
+      <c r="C211" s="86">
+        <f>C200-SUM(C202:C210)</f>
+        <v>39300</v>
+      </c>
+      <c r="I211" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="L211" s="72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="9:12">
+      <c r="I212" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="L212" s="72">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="213" spans="9:12">
+      <c r="I213" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="L213" s="72">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="214" spans="9:12">
+      <c r="I214" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L214" s="72">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="215" spans="9:12">
+      <c r="I215" s="58"/>
+      <c r="L215" s="72">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="216" spans="9:12">
+      <c r="I216" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L216" s="72">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="217" spans="9:12">
+      <c r="I217" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="L217" s="72">
+        <v>86960</v>
+      </c>
+    </row>
+    <row r="218" ht="15" spans="9:12">
+      <c r="I218" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J218" s="79"/>
+      <c r="K218" s="79"/>
+      <c r="L218" s="88">
+        <f>SUM(L209:L217)</f>
+        <v>120250</v>
+      </c>
+    </row>
+    <row r="220" ht="18" spans="1:1">
+      <c r="A220" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="81">
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="H43:K43"/>
@@ -5327,6 +6325,12 @@
     <mergeCell ref="J160:K160"/>
     <mergeCell ref="J161:K161"/>
     <mergeCell ref="J162:K162"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="I199:L199"/>
+    <mergeCell ref="I205:J205"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A93:A95"/>
@@ -5334,12 +6338,17 @@
     <mergeCell ref="C117:D118"/>
     <mergeCell ref="E117:F118"/>
     <mergeCell ref="G117:H118"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="E167:F168"/>
+    <mergeCell ref="G167:H168"/>
+    <mergeCell ref="I167:J168"/>
+    <mergeCell ref="K167:L168"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="G39" formula="1"/>
-    <ignoredError sqref="P143 E136" formulaRange="1"/>
+    <ignoredError sqref="P147 E136 P143" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Chapter 4.xlsx
+++ b/Chapter 4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="10380"/>
+    <workbookView windowWidth="14400" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="116">
   <si>
     <t>Chapter 4</t>
   </si>
@@ -339,6 +339,42 @@
   </si>
   <si>
     <t>4-6A</t>
+  </si>
+  <si>
+    <t>Unadjusted Trial Balance</t>
+  </si>
+  <si>
+    <t>Accounts receivable</t>
+  </si>
+  <si>
+    <t>Salaries payable</t>
+  </si>
+  <si>
+    <t>Unearned member fees</t>
+  </si>
+  <si>
+    <t>Notes payable</t>
+  </si>
+  <si>
+    <t>T. Allen, Capital</t>
+  </si>
+  <si>
+    <t>T. Allen, Withdrawals</t>
+  </si>
+  <si>
+    <t>Member fees earned</t>
+  </si>
+  <si>
+    <t>Salaries expense</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1311,36 +1347,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1353,70 +1362,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1724,8 +1703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="800100"/>
-          <a:ext cx="6651625" cy="2284095"/>
+          <a:off x="9525" y="828675"/>
+          <a:ext cx="6194425" cy="2388870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,37 +1978,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI220"/>
+  <dimension ref="A1:AI254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.02857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="16" max="16" width="12.858407079646"/>
+    <col min="16" max="16" width="12.8571428571429"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" spans="1:1">
+    <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:1">
+    <row r="3" ht="18.75" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:1">
+    <row r="13" ht="18.75" spans="1:1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" ht="18" spans="1:1">
+    <row r="14" ht="18.75" spans="1:1">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" ht="18" spans="1:1">
+    <row r="15" ht="18.75" spans="1:1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" ht="18" spans="1:1">
+    <row r="16" ht="18.75" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15"/>
+    <row r="42" ht="15.75"/>
     <row r="43" spans="1:35">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
@@ -3044,7 +3023,7 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="19"/>
     </row>
-    <row r="47" ht="15" spans="1:35">
+    <row r="47" ht="15.75" spans="1:35">
       <c r="A47" s="18">
         <v>2</v>
       </c>
@@ -3280,7 +3259,7 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="19"/>
     </row>
-    <row r="53" ht="15" spans="1:35">
+    <row r="53" ht="15.75" spans="1:35">
       <c r="A53" s="18">
         <v>14</v>
       </c>
@@ -3381,7 +3360,7 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="19"/>
     </row>
-    <row r="56" ht="15" spans="1:35">
+    <row r="56" ht="15.75" spans="1:35">
       <c r="A56" s="18"/>
       <c r="B56" s="5" t="s">
         <v>14</v>
@@ -3607,7 +3586,7 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="19"/>
     </row>
-    <row r="65" ht="15" spans="1:35">
+    <row r="65" ht="15.75" spans="1:35">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="28"/>
@@ -3636,7 +3615,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="19"/>
     </row>
-    <row r="66" ht="15" spans="8:35">
+    <row r="66" ht="15.75" spans="8:35">
       <c r="H66" s="20"/>
       <c r="K66" s="19">
         <v>60000</v>
@@ -3897,7 +3876,7 @@
       <c r="AH76" s="2"/>
       <c r="AI76" s="19"/>
     </row>
-    <row r="77" ht="15" spans="1:35">
+    <row r="77" ht="15.75" spans="1:35">
       <c r="A77" s="27"/>
       <c r="B77" s="37" t="s">
         <v>14</v>
@@ -3943,7 +3922,7 @@
       <c r="AH78" s="2"/>
       <c r="AI78" s="19"/>
     </row>
-    <row r="79" ht="15" spans="8:35">
+    <row r="79" ht="15.75" spans="8:35">
       <c r="H79" s="20"/>
       <c r="K79" s="19"/>
       <c r="AA79" s="20"/>
@@ -4324,7 +4303,7 @@
       <c r="AH95" s="2"/>
       <c r="AI95" s="19"/>
     </row>
-    <row r="96" ht="15" spans="1:35">
+    <row r="96" ht="15.75" spans="1:35">
       <c r="A96" s="18"/>
       <c r="E96" s="19"/>
       <c r="H96" s="27"/>
@@ -4341,7 +4320,7 @@
       <c r="AB96" s="28"/>
       <c r="AC96" s="34">
         <f ca="1">SUM(AC44:AC96)</f>
-        <v>70470</v>
+        <v>0</v>
       </c>
       <c r="AD96" s="31">
         <f>SUM(AD45:AD95)</f>
@@ -4370,7 +4349,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="98" ht="15" spans="1:5">
+    <row r="98" ht="15.75" spans="1:5">
       <c r="A98" s="40"/>
       <c r="B98" s="28" t="s">
         <v>10</v>
@@ -4381,12 +4360,12 @@
       </c>
       <c r="E98" s="29"/>
     </row>
-    <row r="101" ht="18" spans="1:1">
+    <row r="101" ht="18.75" spans="1:1">
       <c r="A101" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="102" ht="15"/>
+    <row r="102" ht="15.75"/>
     <row r="103" spans="1:14">
       <c r="A103" s="17" t="s">
         <v>24</v>
@@ -4462,7 +4441,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="107" ht="15" spans="1:14">
+    <row r="107" ht="15.75" spans="1:14">
       <c r="A107" s="18" t="s">
         <v>49</v>
       </c>
@@ -4549,7 +4528,7 @@
       <c r="K111" s="18"/>
       <c r="N111" s="19"/>
     </row>
-    <row r="112" ht="15" spans="1:14">
+    <row r="112" ht="15.75" spans="1:14">
       <c r="A112" s="27" t="s">
         <v>30</v>
       </c>
@@ -4589,7 +4568,7 @@
         <v>47650</v>
       </c>
     </row>
-    <row r="116" ht="15" spans="11:14">
+    <row r="116" ht="15.75" spans="11:14">
       <c r="K116" s="27" t="s">
         <v>52</v>
       </c>
@@ -4921,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15" spans="1:8">
+    <row r="137" ht="15.75" spans="1:8">
       <c r="A137" s="27" t="s">
         <v>32</v>
       </c>
@@ -4945,7 +4924,7 @@
         <v>64150</v>
       </c>
     </row>
-    <row r="140" ht="18.75" spans="1:1">
+    <row r="140" ht="19.5" spans="1:1">
       <c r="A140" s="4" t="s">
         <v>69</v>
       </c>
@@ -5047,7 +5026,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="145" ht="15" spans="1:16">
+    <row r="145" ht="15.75" spans="1:16">
       <c r="A145" s="18" t="s">
         <v>78</v>
       </c>
@@ -5296,7 +5275,7 @@
       </c>
       <c r="O159" s="13"/>
     </row>
-    <row r="160" ht="15" spans="1:13">
+    <row r="160" ht="15.75" spans="1:13">
       <c r="A160" s="27" t="s">
         <v>30</v>
       </c>
@@ -5329,7 +5308,7 @@
         <v>83800</v>
       </c>
     </row>
-    <row r="163" ht="15" spans="10:13">
+    <row r="163" ht="15.75" spans="10:13">
       <c r="J163" s="27" t="s">
         <v>52</v>
       </c>
@@ -5340,50 +5319,50 @@
         <v>178100</v>
       </c>
     </row>
-    <row r="166" ht="18.75" spans="1:1">
+    <row r="166" ht="19.5" spans="1:1">
       <c r="A166" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:12">
-      <c r="A167" s="54"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="56" t="s">
+      <c r="A167" s="14"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D167" s="56"/>
-      <c r="E167" s="57" t="s">
+      <c r="D167" s="41"/>
+      <c r="E167" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F167" s="57"/>
-      <c r="G167" s="56" t="s">
+      <c r="F167" s="24"/>
+      <c r="G167" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H167" s="56"/>
-      <c r="I167" s="56" t="s">
+      <c r="H167" s="41"/>
+      <c r="I167" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="J167" s="56"/>
-      <c r="K167" s="56" t="s">
+      <c r="J167" s="41"/>
+      <c r="K167" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L167" s="70"/>
+      <c r="L167" s="42"/>
     </row>
     <row r="168" spans="1:12">
-      <c r="A168" s="58"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="60"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="71"/>
+      <c r="A168" s="18"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
+      <c r="I168" s="43"/>
+      <c r="J168" s="43"/>
+      <c r="K168" s="43"/>
+      <c r="L168" s="44"/>
     </row>
     <row r="169" spans="1:12">
-      <c r="A169" s="58"/>
+      <c r="A169" s="18"/>
       <c r="C169" t="s">
         <v>12</v>
       </c>
@@ -5411,857 +5390,1339 @@
       <c r="K169" t="s">
         <v>12</v>
       </c>
-      <c r="L169" s="72" t="s">
+      <c r="L169" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:12">
-      <c r="A170" s="58" t="s">
+      <c r="A170" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C170">
         <v>17500</v>
       </c>
-      <c r="D170" s="61"/>
-      <c r="F170" s="61"/>
+      <c r="D170" s="47"/>
+      <c r="F170" s="47"/>
       <c r="G170">
         <v>17500</v>
       </c>
-      <c r="H170" s="61"/>
-      <c r="J170" s="61"/>
+      <c r="H170" s="47"/>
+      <c r="J170" s="47"/>
       <c r="K170">
         <v>17500</v>
       </c>
-      <c r="L170" s="72"/>
+      <c r="L170" s="19"/>
     </row>
     <row r="171" spans="1:12">
-      <c r="A171" s="58" t="s">
+      <c r="A171" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C171">
         <v>8900</v>
       </c>
-      <c r="D171" s="61"/>
-      <c r="F171" s="61">
+      <c r="D171" s="47"/>
+      <c r="F171" s="47">
         <v>5700</v>
       </c>
       <c r="G171">
         <v>3200</v>
       </c>
-      <c r="H171" s="61"/>
-      <c r="J171" s="61"/>
+      <c r="H171" s="47"/>
+      <c r="J171" s="47"/>
       <c r="K171">
         <v>3200</v>
       </c>
-      <c r="L171" s="72"/>
+      <c r="L171" s="19"/>
     </row>
     <row r="172" spans="1:12">
-      <c r="A172" s="58" t="s">
+      <c r="A172" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C172">
         <v>6200</v>
       </c>
-      <c r="D172" s="61"/>
-      <c r="F172" s="61">
+      <c r="D172" s="47"/>
+      <c r="F172" s="47">
         <v>3900</v>
       </c>
       <c r="G172">
         <v>2300</v>
       </c>
-      <c r="H172" s="61"/>
-      <c r="J172" s="61"/>
+      <c r="H172" s="47"/>
+      <c r="J172" s="47"/>
       <c r="K172">
         <v>2300</v>
       </c>
-      <c r="L172" s="72"/>
+      <c r="L172" s="19"/>
     </row>
     <row r="173" spans="1:12">
-      <c r="A173" s="58" t="s">
+      <c r="A173" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C173">
         <v>131000</v>
       </c>
-      <c r="D173" s="61"/>
-      <c r="F173" s="61"/>
+      <c r="D173" s="47"/>
+      <c r="F173" s="47"/>
       <c r="G173">
         <v>131000</v>
       </c>
-      <c r="H173" s="61"/>
-      <c r="J173" s="61"/>
+      <c r="H173" s="47"/>
+      <c r="J173" s="47"/>
       <c r="K173">
         <v>131000</v>
       </c>
-      <c r="L173" s="72"/>
+      <c r="L173" s="19"/>
     </row>
     <row r="174" spans="1:12">
-      <c r="A174" s="62" t="s">
+      <c r="A174" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B174" s="63"/>
-      <c r="D174" s="61">
+      <c r="B174" s="39"/>
+      <c r="D174" s="47">
         <v>25250</v>
       </c>
-      <c r="F174" s="61">
+      <c r="F174" s="47">
         <v>8500</v>
       </c>
-      <c r="H174" s="61">
+      <c r="H174" s="47">
         <f>D174+F174</f>
         <v>33750</v>
       </c>
-      <c r="J174" s="61"/>
-      <c r="L174" s="72">
+      <c r="J174" s="47"/>
+      <c r="L174" s="19">
         <v>33750</v>
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="A175" s="58" t="s">
+      <c r="A175" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D175" s="61">
+      <c r="D175" s="47">
         <v>5800</v>
       </c>
-      <c r="E175"/>
-      <c r="F175" s="61"/>
-      <c r="H175" s="61">
+      <c r="F175" s="47"/>
+      <c r="H175" s="47">
         <v>5800</v>
       </c>
-      <c r="J175" s="61"/>
-      <c r="L175" s="72">
+      <c r="J175" s="47"/>
+      <c r="L175" s="19">
         <v>5800</v>
       </c>
     </row>
     <row r="176" spans="1:12">
-      <c r="A176" s="58" t="s">
+      <c r="A176" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D176" s="61">
-        <v>0</v>
-      </c>
-      <c r="F176" s="61">
+      <c r="D176" s="47">
+        <v>0</v>
+      </c>
+      <c r="F176" s="47">
         <v>240</v>
       </c>
-      <c r="H176" s="61">
+      <c r="H176" s="47">
         <v>240</v>
       </c>
-      <c r="J176" s="61"/>
-      <c r="L176" s="72">
+      <c r="J176" s="47"/>
+      <c r="L176" s="19">
         <v>240</v>
       </c>
     </row>
     <row r="177" spans="1:12">
-      <c r="A177" s="58" t="s">
+      <c r="A177" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D177" s="61">
-        <v>0</v>
-      </c>
-      <c r="F177" s="61">
+      <c r="D177" s="47">
+        <v>0</v>
+      </c>
+      <c r="F177" s="47">
         <v>200</v>
       </c>
-      <c r="H177" s="61">
+      <c r="H177" s="47">
         <v>200</v>
       </c>
-      <c r="J177" s="61"/>
-      <c r="L177" s="72">
+      <c r="J177" s="47"/>
+      <c r="L177" s="19">
         <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:12">
-      <c r="A178" s="58" t="s">
+      <c r="A178" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D178" s="61">
-        <v>0</v>
-      </c>
-      <c r="F178" s="61">
+      <c r="D178" s="47">
+        <v>0</v>
+      </c>
+      <c r="F178" s="47">
         <v>1600</v>
       </c>
-      <c r="H178" s="61">
+      <c r="H178" s="47">
         <v>1600</v>
       </c>
-      <c r="J178" s="61"/>
-      <c r="L178" s="72">
+      <c r="J178" s="47"/>
+      <c r="L178" s="19">
         <v>1600</v>
       </c>
     </row>
     <row r="179" spans="1:12">
-      <c r="A179" s="58" t="s">
+      <c r="A179" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D179" s="61">
-        <v>0</v>
-      </c>
-      <c r="F179" s="61">
+      <c r="D179" s="47">
+        <v>0</v>
+      </c>
+      <c r="F179" s="47">
         <v>550</v>
       </c>
-      <c r="H179" s="61">
+      <c r="H179" s="47">
         <v>550</v>
       </c>
-      <c r="J179" s="61"/>
-      <c r="L179" s="72">
+      <c r="J179" s="47"/>
+      <c r="L179" s="19">
         <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:12">
-      <c r="A180" s="58" t="s">
+      <c r="A180" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D180" s="61">
-        <v>0</v>
-      </c>
-      <c r="F180" s="61">
+      <c r="D180" s="47">
+        <v>0</v>
+      </c>
+      <c r="F180" s="47">
         <v>900</v>
       </c>
-      <c r="H180" s="61">
+      <c r="H180" s="47">
         <v>900</v>
       </c>
-      <c r="J180" s="61"/>
-      <c r="L180" s="72">
+      <c r="J180" s="47"/>
+      <c r="L180" s="19">
         <v>900</v>
       </c>
     </row>
     <row r="181" spans="1:12">
-      <c r="A181" s="58"/>
-      <c r="D181" s="61"/>
-      <c r="E181" s="64"/>
-      <c r="F181" s="65">
+      <c r="A181" s="18"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="56">
         <v>5000</v>
       </c>
-      <c r="H181" s="61">
+      <c r="H181" s="47">
         <v>5000</v>
       </c>
-      <c r="I181"/>
-      <c r="J181" s="61"/>
-      <c r="L181" s="72">
+      <c r="J181" s="47"/>
+      <c r="L181" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="182" spans="1:12">
-      <c r="A182" s="58" t="s">
+      <c r="A182" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="61">
+      <c r="D182" s="47">
         <v>24000</v>
       </c>
-      <c r="E182" s="66">
+      <c r="E182" s="57">
         <v>5000</v>
       </c>
-      <c r="F182" s="61"/>
-      <c r="H182" s="61">
+      <c r="F182" s="47"/>
+      <c r="H182" s="47">
         <f>D182-E182</f>
         <v>19000</v>
       </c>
-      <c r="J182" s="61"/>
-      <c r="L182" s="72">
+      <c r="J182" s="47"/>
+      <c r="L182" s="19">
         <v>19000</v>
       </c>
     </row>
     <row r="183" spans="1:12">
-      <c r="A183" s="58" t="s">
+      <c r="A183" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D183" s="61">
+      <c r="D183" s="47">
         <v>77660</v>
       </c>
-      <c r="F183" s="61"/>
-      <c r="H183" s="61">
+      <c r="F183" s="47"/>
+      <c r="H183" s="47">
         <v>77660</v>
       </c>
       <c r="I183">
         <v>30000</v>
       </c>
-      <c r="J183" s="61">
+      <c r="J183" s="47">
         <v>39300</v>
       </c>
-      <c r="L183" s="72">
+      <c r="L183" s="19">
         <f>H183+J183-I183</f>
         <v>86960</v>
       </c>
     </row>
     <row r="184" spans="1:12">
-      <c r="A184" s="58" t="s">
+      <c r="A184" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C184">
         <v>30000</v>
       </c>
-      <c r="D184" s="61"/>
-      <c r="F184" s="61"/>
+      <c r="D184" s="47"/>
+      <c r="F184" s="47"/>
       <c r="G184">
         <v>30000</v>
       </c>
-      <c r="H184" s="61"/>
-      <c r="J184" s="61">
+      <c r="H184" s="47"/>
+      <c r="J184" s="47">
         <v>30000</v>
       </c>
-      <c r="L184" s="72">
+      <c r="L184" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:12">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B185" s="63"/>
-      <c r="D185" s="61">
+      <c r="B185" s="39"/>
+      <c r="D185" s="47">
         <v>134000</v>
       </c>
-      <c r="F185" s="61"/>
-      <c r="H185" s="61">
+      <c r="F185" s="47"/>
+      <c r="H185" s="47">
         <v>134000</v>
       </c>
       <c r="I185">
         <v>134000</v>
       </c>
-      <c r="J185" s="61"/>
-      <c r="L185" s="72">
+      <c r="J185" s="47"/>
+      <c r="L185" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:12">
-      <c r="A186" s="58" t="s">
+      <c r="A186" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C186">
         <v>0</v>
       </c>
-      <c r="D186" s="61"/>
+      <c r="D186" s="47"/>
       <c r="E186">
         <v>8500</v>
       </c>
-      <c r="F186" s="61"/>
+      <c r="F186" s="47"/>
       <c r="G186">
         <v>8500</v>
       </c>
-      <c r="H186" s="61"/>
-      <c r="J186" s="61">
+      <c r="H186" s="47"/>
+      <c r="J186" s="47">
         <v>8500</v>
       </c>
-      <c r="L186" s="72">
+      <c r="L186" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:12">
-      <c r="A187" s="58" t="s">
+      <c r="A187" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C187">
         <v>45860</v>
       </c>
-      <c r="D187" s="61"/>
+      <c r="D187" s="47"/>
       <c r="E187">
         <v>1600</v>
       </c>
-      <c r="F187" s="61"/>
+      <c r="F187" s="47"/>
       <c r="G187">
         <f>C187+E187</f>
         <v>47460</v>
       </c>
-      <c r="H187" s="61"/>
-      <c r="J187" s="61">
+      <c r="H187" s="47"/>
+      <c r="J187" s="47">
         <v>47460</v>
       </c>
-      <c r="L187" s="72">
+      <c r="L187" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:12">
-      <c r="A188" s="58" t="s">
+      <c r="A188" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C188">
         <v>2640</v>
       </c>
-      <c r="D188" s="61"/>
+      <c r="D188" s="47"/>
       <c r="E188">
         <v>240</v>
       </c>
-      <c r="F188" s="61"/>
+      <c r="F188" s="47"/>
       <c r="G188">
         <f t="shared" ref="G188:G194" si="2">C188+E188</f>
         <v>2880</v>
       </c>
-      <c r="H188" s="61"/>
-      <c r="J188" s="61">
+      <c r="H188" s="47"/>
+      <c r="J188" s="47">
         <v>2880</v>
       </c>
-      <c r="L188" s="72">
+      <c r="L188" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:12">
-      <c r="A189" s="58" t="s">
+      <c r="A189" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
-      <c r="D189" s="61"/>
+      <c r="D189" s="47"/>
       <c r="E189">
         <v>3900</v>
       </c>
-      <c r="F189" s="61"/>
+      <c r="F189" s="47"/>
       <c r="G189">
         <f t="shared" si="2"/>
         <v>3900</v>
       </c>
-      <c r="H189" s="67"/>
-      <c r="J189" s="61">
+      <c r="H189" s="58"/>
+      <c r="J189" s="47">
         <v>3900</v>
       </c>
-      <c r="L189" s="72">
+      <c r="L189" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:12">
-      <c r="A190" s="58" t="s">
+      <c r="A190" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C190">
         <v>13200</v>
       </c>
-      <c r="D190" s="61"/>
+      <c r="D190" s="47"/>
       <c r="E190">
         <v>200</v>
       </c>
-      <c r="F190" s="61"/>
+      <c r="F190" s="47"/>
       <c r="G190">
         <f t="shared" si="2"/>
         <v>13400</v>
       </c>
-      <c r="H190" s="61"/>
-      <c r="J190" s="61">
+      <c r="H190" s="47"/>
+      <c r="J190" s="47">
         <v>13400</v>
       </c>
-      <c r="L190" s="72">
+      <c r="L190" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:12">
-      <c r="A191" s="58" t="s">
+      <c r="A191" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
-      <c r="D191" s="68"/>
-      <c r="E191" s="69">
+      <c r="D191" s="2"/>
+      <c r="E191" s="46">
         <v>5700</v>
       </c>
-      <c r="F191" s="61"/>
+      <c r="F191" s="47"/>
       <c r="G191">
         <f t="shared" si="2"/>
         <v>5700</v>
       </c>
-      <c r="H191" s="61"/>
-      <c r="J191" s="61">
+      <c r="H191" s="47"/>
+      <c r="J191" s="47">
         <v>5700</v>
       </c>
-      <c r="L191" s="72">
+      <c r="L191" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:12">
-      <c r="A192" s="58" t="s">
+      <c r="A192" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C192">
         <v>4600</v>
       </c>
-      <c r="D192" s="61"/>
+      <c r="D192" s="47"/>
       <c r="E192">
         <v>900</v>
       </c>
-      <c r="F192" s="61"/>
+      <c r="F192" s="47"/>
       <c r="G192">
         <f t="shared" si="2"/>
         <v>5500</v>
       </c>
-      <c r="H192" s="61"/>
-      <c r="J192" s="61">
+      <c r="H192" s="47"/>
+      <c r="J192" s="47">
         <v>5500</v>
       </c>
-      <c r="L192" s="72">
+      <c r="L192" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:12">
-      <c r="A193" s="58" t="s">
+      <c r="A193" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C193">
         <v>2810</v>
       </c>
-      <c r="D193" s="61"/>
-      <c r="F193" s="61"/>
+      <c r="D193" s="47"/>
+      <c r="F193" s="47"/>
       <c r="G193">
         <f t="shared" si="2"/>
         <v>2810</v>
       </c>
-      <c r="H193" s="61"/>
-      <c r="J193" s="61">
+      <c r="H193" s="47"/>
+      <c r="J193" s="47">
         <v>2810</v>
       </c>
-      <c r="L193" s="72">
+      <c r="L193" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:12">
-      <c r="A194" s="58" t="s">
+      <c r="A194" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C194">
         <v>4000</v>
       </c>
-      <c r="D194" s="61"/>
+      <c r="D194" s="47"/>
       <c r="E194">
         <v>550</v>
       </c>
-      <c r="F194" s="61"/>
+      <c r="F194" s="47"/>
       <c r="G194">
         <f t="shared" si="2"/>
         <v>4550</v>
       </c>
-      <c r="H194" s="61"/>
-      <c r="J194" s="61">
+      <c r="H194" s="47"/>
+      <c r="J194" s="47">
         <v>4550</v>
       </c>
-      <c r="L194" s="72">
+      <c r="L194" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:12">
-      <c r="A195" s="73" t="s">
+      <c r="A195" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B195" s="74"/>
-      <c r="C195" s="75"/>
-      <c r="D195" s="76"/>
-      <c r="E195" s="74"/>
-      <c r="F195" s="77"/>
-      <c r="G195" s="75"/>
-      <c r="H195" s="76"/>
-      <c r="I195" s="75">
+      <c r="B195" s="60"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="50"/>
+      <c r="E195" s="60"/>
+      <c r="F195" s="61"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="50"/>
+      <c r="I195" s="12">
         <f>SUM(J186:J194)+39300</f>
         <v>134000</v>
       </c>
-      <c r="J195" s="77">
+      <c r="J195" s="61">
         <v>134000</v>
       </c>
-      <c r="K195" s="74"/>
-      <c r="L195" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" ht="15" spans="1:12">
-      <c r="A196" s="78" t="s">
+      <c r="K195" s="60"/>
+      <c r="L195" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" spans="1:12">
+      <c r="A196" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B196" s="79"/>
-      <c r="C196" s="80">
+      <c r="B196" s="28"/>
+      <c r="C196" s="34">
         <f>SUM(C170:C194)</f>
         <v>266710</v>
       </c>
-      <c r="D196" s="81">
+      <c r="D196" s="53">
         <f>SUM(D170:D194)</f>
         <v>266710</v>
       </c>
-      <c r="E196" s="79"/>
-      <c r="F196" s="82"/>
-      <c r="G196" s="80">
+      <c r="E196" s="28"/>
+      <c r="F196" s="62"/>
+      <c r="G196" s="34">
         <f>SUM(G170:G194)</f>
         <v>278700</v>
       </c>
-      <c r="H196" s="81">
+      <c r="H196" s="53">
         <f>SUM(H170:H194)</f>
         <v>278700</v>
       </c>
-      <c r="I196" s="79"/>
-      <c r="J196" s="82"/>
-      <c r="K196" s="80">
+      <c r="I196" s="28"/>
+      <c r="J196" s="62"/>
+      <c r="K196" s="34">
         <f>SUM(K170:K173)</f>
         <v>154000</v>
       </c>
-      <c r="L196" s="88">
+      <c r="L196" s="31">
         <f>SUM(L174:L183)</f>
         <v>154000</v>
       </c>
     </row>
+    <row r="198" ht="15.75"/>
     <row r="199" spans="1:12">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B199" s="57"/>
-      <c r="C199" s="84"/>
-      <c r="E199" s="83" t="s">
+      <c r="B199" s="24"/>
+      <c r="C199" s="25"/>
+      <c r="E199" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F199" s="57"/>
-      <c r="G199" s="84"/>
-      <c r="I199" s="83" t="s">
+      <c r="F199" s="24"/>
+      <c r="G199" s="25"/>
+      <c r="I199" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J199" s="57"/>
-      <c r="K199" s="57"/>
-      <c r="L199" s="84"/>
+      <c r="J199" s="24"/>
+      <c r="K199" s="24"/>
+      <c r="L199" s="25"/>
     </row>
     <row r="200" spans="1:12">
-      <c r="A200" s="58" t="s">
+      <c r="A200" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C200" s="85">
+      <c r="C200" s="19">
         <v>134000</v>
       </c>
-      <c r="E200" s="58" t="s">
+      <c r="E200" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G200" s="72">
+      <c r="G200" s="19">
         <v>77660</v>
       </c>
-      <c r="I200" s="58" t="s">
+      <c r="I200" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L200" s="72"/>
+      <c r="L200" s="19"/>
     </row>
     <row r="201" spans="1:12">
-      <c r="A201" s="58"/>
-      <c r="C201" s="72"/>
-      <c r="E201" s="58" t="s">
+      <c r="A201" s="18"/>
+      <c r="C201" s="19"/>
+      <c r="E201" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G201" s="72">
+      <c r="G201" s="19">
         <v>39300</v>
       </c>
-      <c r="I201" s="58" t="s">
+      <c r="I201" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L201" s="72">
+      <c r="L201" s="19">
         <v>17500</v>
       </c>
     </row>
     <row r="202" spans="1:12">
-      <c r="A202" s="58" t="s">
+      <c r="A202" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C202" s="72">
+      <c r="C202" s="19">
         <v>8500</v>
       </c>
-      <c r="E202" s="58" t="s">
+      <c r="E202" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G202" s="72">
+      <c r="G202" s="19">
         <v>30000</v>
       </c>
-      <c r="I202" s="58" t="s">
+      <c r="I202" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L202" s="72">
+      <c r="L202" s="19">
         <v>3200</v>
       </c>
     </row>
-    <row r="203" ht="15" spans="1:12">
-      <c r="A203" s="58" t="s">
+    <row r="203" ht="15.75" spans="1:12">
+      <c r="A203" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C203" s="72">
+      <c r="C203" s="19">
         <v>47460</v>
       </c>
-      <c r="E203" s="78" t="s">
+      <c r="E203" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F203" s="79"/>
-      <c r="G203" s="86">
+      <c r="F203" s="28"/>
+      <c r="G203" s="29">
         <f>G200+G201-G202</f>
         <v>86960</v>
       </c>
-      <c r="I203" s="58" t="s">
+      <c r="I203" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L203" s="72">
+      <c r="L203" s="19">
         <v>2300</v>
       </c>
     </row>
     <row r="204" spans="1:12">
-      <c r="A204" s="58" t="s">
+      <c r="A204" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C204" s="72">
+      <c r="C204" s="19">
         <v>2880</v>
       </c>
-      <c r="I204" s="58" t="s">
+      <c r="I204" s="18" t="s">
         <v>50</v>
       </c>
       <c r="K204">
         <v>131000</v>
       </c>
-      <c r="L204" s="72"/>
+      <c r="L204" s="19"/>
     </row>
     <row r="205" spans="1:12">
-      <c r="A205" s="58" t="s">
+      <c r="A205" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C205" s="72">
+      <c r="C205" s="19">
         <v>3900</v>
       </c>
-      <c r="I205" s="62" t="s">
+      <c r="I205" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J205" s="63"/>
+      <c r="J205" s="39"/>
       <c r="K205">
         <v>33750</v>
       </c>
-      <c r="L205" s="72">
+      <c r="L205" s="19">
         <f>K204-K205</f>
         <v>97250</v>
       </c>
     </row>
     <row r="206" spans="1:12">
-      <c r="A206" s="58" t="s">
+      <c r="A206" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C206" s="72">
+      <c r="C206" s="19">
         <v>13400</v>
       </c>
-      <c r="I206" s="58" t="s">
+      <c r="I206" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="L206" s="89">
+      <c r="L206" s="26">
         <f>SUM(L201:L205)</f>
         <v>120250</v>
       </c>
     </row>
     <row r="207" spans="1:12">
-      <c r="A207" s="58" t="s">
+      <c r="A207" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C207" s="72">
+      <c r="C207" s="19">
         <v>5700</v>
       </c>
-      <c r="I207" s="58"/>
-      <c r="L207" s="72"/>
+      <c r="I207" s="18"/>
+      <c r="L207" s="19"/>
     </row>
     <row r="208" spans="1:12">
-      <c r="A208" s="58" t="s">
+      <c r="A208" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C208" s="72">
+      <c r="C208" s="19">
         <v>5500</v>
       </c>
-      <c r="I208" s="58" t="s">
+      <c r="I208" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L208" s="72"/>
+      <c r="L208" s="19"/>
     </row>
     <row r="209" spans="1:12">
-      <c r="A209" s="58" t="s">
+      <c r="A209" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C209" s="72">
+      <c r="C209" s="19">
         <v>2810</v>
       </c>
-      <c r="I209" s="58" t="s">
+      <c r="I209" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="L209" s="72">
+      <c r="L209" s="19">
         <v>5800</v>
       </c>
     </row>
     <row r="210" spans="1:12">
-      <c r="A210" s="58" t="s">
+      <c r="A210" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C210" s="72">
+      <c r="C210" s="19">
         <v>4550</v>
       </c>
-      <c r="I210" s="58" t="s">
+      <c r="I210" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L210" s="89">
+      <c r="L210" s="26">
         <v>240</v>
       </c>
     </row>
-    <row r="211" ht="15" spans="1:12">
-      <c r="A211" s="78" t="s">
+    <row r="211" ht="15.75" spans="1:12">
+      <c r="A211" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="79"/>
-      <c r="C211" s="86">
+      <c r="B211" s="28"/>
+      <c r="C211" s="29">
         <f>C200-SUM(C202:C210)</f>
         <v>39300</v>
       </c>
-      <c r="I211" s="58" t="s">
+      <c r="I211" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="L211" s="72">
+      <c r="L211" s="19">
         <v>200</v>
       </c>
     </row>
     <row r="212" spans="9:12">
-      <c r="I212" s="58" t="s">
+      <c r="I212" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="L212" s="72">
+      <c r="L212" s="19">
         <v>1600</v>
       </c>
     </row>
     <row r="213" spans="9:12">
-      <c r="I213" s="58" t="s">
+      <c r="I213" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L213" s="72">
+      <c r="L213" s="19">
         <v>550</v>
       </c>
     </row>
     <row r="214" spans="9:12">
-      <c r="I214" s="58" t="s">
+      <c r="I214" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L214" s="72">
+      <c r="L214" s="19">
         <v>900</v>
       </c>
     </row>
     <row r="215" spans="9:12">
-      <c r="I215" s="58"/>
-      <c r="L215" s="72">
+      <c r="I215" s="18"/>
+      <c r="L215" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="216" spans="9:12">
-      <c r="I216" s="58" t="s">
+      <c r="I216" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L216" s="72">
+      <c r="L216" s="19">
         <v>19000</v>
       </c>
     </row>
     <row r="217" spans="9:12">
-      <c r="I217" s="58" t="s">
+      <c r="I217" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L217" s="72">
+      <c r="L217" s="19">
         <v>86960</v>
       </c>
     </row>
-    <row r="218" ht="15" spans="9:12">
-      <c r="I218" s="78" t="s">
+    <row r="218" ht="15.75" spans="9:12">
+      <c r="I218" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J218" s="79"/>
-      <c r="K218" s="79"/>
-      <c r="L218" s="88">
+      <c r="J218" s="28"/>
+      <c r="K218" s="28"/>
+      <c r="L218" s="31">
         <f>SUM(L209:L217)</f>
         <v>120250</v>
       </c>
     </row>
-    <row r="220" ht="18" spans="1:1">
+    <row r="220" ht="19.5" spans="1:1">
       <c r="A220" s="4" t="s">
         <v>103</v>
       </c>
     </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="14"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D221" s="41"/>
+      <c r="E221" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F221" s="24"/>
+      <c r="G221" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H221" s="42"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="18"/>
+      <c r="C222" s="43"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="54"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="44"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="18"/>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s">
+        <v>12</v>
+      </c>
+      <c r="H223" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224">
+        <v>13000</v>
+      </c>
+      <c r="D224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224">
+        <v>13000</v>
+      </c>
+      <c r="H224" s="19"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225" s="47"/>
+      <c r="E225">
+        <v>9100</v>
+      </c>
+      <c r="F225" s="47"/>
+      <c r="G225">
+        <v>9100</v>
+      </c>
+      <c r="H225" s="19"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226">
+        <v>5500</v>
+      </c>
+      <c r="D226" s="47"/>
+      <c r="F226" s="47">
+        <f>5500-2700</f>
+        <v>2800</v>
+      </c>
+      <c r="G226">
+        <f>C226-F226</f>
+        <v>2700</v>
+      </c>
+      <c r="H226" s="19"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227">
+        <v>130000</v>
+      </c>
+      <c r="D227" s="47"/>
+      <c r="F227" s="47"/>
+      <c r="G227">
+        <v>130000</v>
+      </c>
+      <c r="H227" s="19"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="D228" s="47">
+        <v>25000</v>
+      </c>
+      <c r="F228" s="47">
+        <v>12500</v>
+      </c>
+      <c r="H228" s="19">
+        <f>D228+F228</f>
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="D229" s="47">
+        <v>0</v>
+      </c>
+      <c r="F229" s="47">
+        <v>1250</v>
+      </c>
+      <c r="H229" s="19">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="D230" s="47">
+        <v>0</v>
+      </c>
+      <c r="F230" s="47">
+        <v>900</v>
+      </c>
+      <c r="H230" s="19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="D231" s="47">
+        <v>14000</v>
+      </c>
+      <c r="E231">
+        <f>14000-5600</f>
+        <v>8400</v>
+      </c>
+      <c r="F231" s="47"/>
+      <c r="H231" s="19">
+        <f>D231-E231</f>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="D232" s="47">
+        <v>50000</v>
+      </c>
+      <c r="F232" s="47"/>
+      <c r="H232" s="19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="D233" s="47">
+        <v>58250</v>
+      </c>
+      <c r="F233" s="47"/>
+      <c r="H233" s="19">
+        <v>58250</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="C234">
+        <v>20000</v>
+      </c>
+      <c r="D234" s="47"/>
+      <c r="F234" s="47"/>
+      <c r="G234">
+        <v>20000</v>
+      </c>
+      <c r="H234" s="19"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="D235" s="47">
+        <v>53000</v>
+      </c>
+      <c r="F235" s="47">
+        <f>8400+9100</f>
+        <v>17500</v>
+      </c>
+      <c r="H235" s="19">
+        <f>D235+F235</f>
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236" s="47"/>
+      <c r="E236">
+        <v>12500</v>
+      </c>
+      <c r="F236" s="47"/>
+      <c r="G236">
+        <v>12500</v>
+      </c>
+      <c r="H236" s="19"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237">
+        <v>28000</v>
+      </c>
+      <c r="D237" s="47"/>
+      <c r="E237">
+        <v>900</v>
+      </c>
+      <c r="F237" s="47"/>
+      <c r="G237">
+        <f>C237+E237</f>
+        <v>28900</v>
+      </c>
+      <c r="H237" s="19"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238">
+        <v>3750</v>
+      </c>
+      <c r="D238" s="47"/>
+      <c r="E238">
+        <v>1250</v>
+      </c>
+      <c r="F238" s="47"/>
+      <c r="G238">
+        <f>C238+E238</f>
+        <v>5000</v>
+      </c>
+      <c r="H238" s="19"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="60">
+        <v>0</v>
+      </c>
+      <c r="D239" s="61"/>
+      <c r="E239" s="60">
+        <v>2800</v>
+      </c>
+      <c r="F239" s="61"/>
+      <c r="G239" s="60">
+        <v>2800</v>
+      </c>
+      <c r="H239" s="63"/>
+    </row>
+    <row r="240" ht="15.75" spans="1:8">
+      <c r="A240" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B240" s="37"/>
+      <c r="C240" s="34">
+        <f>SUM(C224:C239)</f>
+        <v>200250</v>
+      </c>
+      <c r="D240" s="65">
+        <f>SUM(D224:D239)</f>
+        <v>200250</v>
+      </c>
+      <c r="E240" s="28"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="34">
+        <f>SUM(G224:G239)</f>
+        <v>224000</v>
+      </c>
+      <c r="H240" s="31">
+        <f>SUM(H224:H239)</f>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" spans="1:2">
+      <c r="A241" s="67"/>
+      <c r="B241" s="67"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="68"/>
+      <c r="B242" s="69"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B243" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D243">
+        <v>900</v>
+      </c>
+      <c r="E243" s="19"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="35"/>
+      <c r="B244" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" s="19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B245" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="E245" s="19">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="35"/>
+      <c r="B246" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D246">
+        <v>2800</v>
+      </c>
+      <c r="E246" s="19"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B247" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C247" s="70"/>
+      <c r="E247" s="19">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="18"/>
+      <c r="B248" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C248" s="70"/>
+      <c r="D248">
+        <v>1250</v>
+      </c>
+      <c r="E248" s="19"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B249" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C249" s="70"/>
+      <c r="D249">
+        <v>8400</v>
+      </c>
+      <c r="E249" s="19"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="18"/>
+      <c r="B250" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C250" s="70"/>
+      <c r="E250" s="19">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C251" s="70"/>
+      <c r="D251">
+        <v>9100</v>
+      </c>
+      <c r="E251" s="19"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="18"/>
+      <c r="B252" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C252" s="70"/>
+      <c r="E252" s="19">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B253" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C253" s="70"/>
+      <c r="D253" s="2">
+        <v>12500</v>
+      </c>
+      <c r="E253" s="19"/>
+    </row>
+    <row r="254" ht="15.75" spans="1:5">
+      <c r="A254" s="27"/>
+      <c r="B254" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C254" s="37"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="29">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="109">
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="H43:K43"/>
@@ -6331,6 +6792,31 @@
     <mergeCell ref="E199:G199"/>
     <mergeCell ref="I199:L199"/>
     <mergeCell ref="I205:J205"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B254:C254"/>
     <mergeCell ref="A81:A82"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A93:A95"/>
@@ -6343,6 +6829,9 @@
     <mergeCell ref="G167:H168"/>
     <mergeCell ref="I167:J168"/>
     <mergeCell ref="K167:L168"/>
+    <mergeCell ref="C221:D222"/>
+    <mergeCell ref="E221:F222"/>
+    <mergeCell ref="G221:H222"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
